--- a/projects/SEB_template.xlsx
+++ b/projects/SEB_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2262,9 +2262,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>../../../lib/calibration_data/electric.json</t>
-  </si>
-  <si>
     <t>Variable Name</t>
   </si>
   <si>
@@ -2334,9 +2331,6 @@
     <t>AddMonthlyJSONUtilityDataGas</t>
   </si>
   <si>
-    <t>../../../lib/calibration_data/gas.json</t>
-  </si>
-  <si>
     <t>Gas Bill</t>
   </si>
   <si>
@@ -2818,6 +2812,12 @@
   </si>
   <si>
     <t>SiteEntranceBuildingMorris</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric_truth.json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas_truth.json</t>
   </si>
 </sst>
 </file>
@@ -6487,7 +6487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -6645,7 +6645,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>470</v>
@@ -6656,7 +6656,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="22" t="s">
@@ -7126,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7340,7 +7340,7 @@
         <v>739</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>740</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7348,7 +7348,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>165</v>
@@ -7358,7 +7358,7 @@
         <v>739</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7366,17 +7366,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7384,17 +7384,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>746</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>747</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7402,17 +7402,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7420,17 +7420,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>752</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>753</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7438,17 +7438,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>756</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>758</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>759</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7474,17 +7474,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>761</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>762</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>736</v>
@@ -7521,7 +7521,7 @@
         <v>739</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>764</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7529,7 +7529,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>165</v>
@@ -7539,7 +7539,7 @@
         <v>739</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7547,17 +7547,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>743</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>744</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7565,17 +7565,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>746</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>747</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7583,17 +7583,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>748</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>750</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7601,17 +7601,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>752</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>753</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7619,17 +7619,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>755</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>756</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="22" t="s">
         <v>739</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7637,17 +7637,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>758</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>759</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -7655,13 +7655,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>232</v>
@@ -7713,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>69</v>
@@ -7750,10 +7750,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="21" t="s">
@@ -7768,10 +7768,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E28" s="45" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="45" t="s">
@@ -7805,10 +7805,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="21" t="s">
@@ -7823,10 +7823,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="21" t="s">
@@ -7841,13 +7841,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>67</v>
@@ -7888,10 +7888,10 @@
         <v>22</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F33" s="60"/>
       <c r="G33" s="59" t="s">
@@ -7925,13 +7925,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E34" s="55" t="s">
         <v>67</v>
@@ -7963,17 +7963,17 @@
         <v>22</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="65" t="s">
         <v>63</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I36" s="61">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D37" s="49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>67</v>
@@ -8040,17 +8040,17 @@
         <v>22</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I39" s="26">
         <v>0.8</v>
@@ -8081,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="49" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>67</v>
@@ -8098,7 +8098,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>125</v>
@@ -8119,17 +8119,17 @@
         <v>22</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I42" s="26">
         <v>4</v>
@@ -8198,7 +8198,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>244</v>
@@ -8208,7 +8208,7 @@
         <v>63</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I45" s="26">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>22</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I46" s="26">
         <v>0</v>
@@ -8283,10 +8283,10 @@
         <v>186</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>67</v>
@@ -8297,7 +8297,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>189</v>
@@ -8307,7 +8307,7 @@
         <v>63</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I48" s="26">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>191</v>
@@ -8348,7 +8348,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I49" s="26">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>193</v>
@@ -8403,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>67</v>
@@ -8434,10 +8434,10 @@
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="48" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48" t="s">
@@ -8475,10 +8475,10 @@
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="48" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48" t="s">
@@ -8515,10 +8515,10 @@
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="48" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="48" t="s">
@@ -8555,13 +8555,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C55" s="68" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D55" s="68" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E55" s="68" t="s">
         <v>67</v>
@@ -8593,7 +8593,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="71" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E56" s="71" t="s">
         <v>88</v>
@@ -8602,7 +8602,7 @@
         <v>103</v>
       </c>
       <c r="I56" s="71" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8610,10 +8610,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G57" s="59" t="s">
         <v>63</v>
@@ -8643,13 +8643,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>67</v>
@@ -8674,10 +8674,10 @@
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="48" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48" t="s">
@@ -8715,10 +8715,10 @@
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48" t="s">
@@ -8755,10 +8755,10 @@
       </c>
       <c r="C61" s="48"/>
       <c r="D61" s="48" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48" t="s">
@@ -8795,13 +8795,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C62" s="68" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D62" s="68" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E62" s="68" t="s">
         <v>67</v>
@@ -8833,7 +8833,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>88</v>
@@ -8842,7 +8842,7 @@
         <v>103</v>
       </c>
       <c r="I63" s="71" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8850,10 +8850,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G64" s="59" t="s">
         <v>63</v>
@@ -8883,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E65" s="49" t="s">
         <v>67</v>
@@ -8900,17 +8900,17 @@
         <v>21</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="45" t="s">
         <v>63</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I66" s="45">
         <v>1</v>
@@ -8941,17 +8941,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I67" s="26">
         <v>1450</v>
@@ -8982,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>232</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C69" s="55" t="s">
         <v>163</v>
@@ -9040,7 +9040,7 @@
         <v>103</v>
       </c>
       <c r="I70" s="57" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J70" s="74"/>
     </row>
@@ -9058,7 +9058,7 @@
         <v>61</v>
       </c>
       <c r="I71" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J71" s="74"/>
     </row>
@@ -9067,16 +9067,16 @@
         <v>21</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I72" s="75" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J72" s="74"/>
     </row>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C73" s="55" t="s">
         <v>163</v>
@@ -9113,7 +9113,7 @@
         <v>103</v>
       </c>
       <c r="I74" s="76" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J74" s="74"/>
     </row>
@@ -9131,7 +9131,7 @@
         <v>61</v>
       </c>
       <c r="I75" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J75" s="74"/>
     </row>
@@ -9140,16 +9140,16 @@
         <v>21</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I76" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J76" s="74"/>
     </row>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="55" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C77" s="55" t="s">
         <v>163</v>
@@ -9186,7 +9186,7 @@
         <v>103</v>
       </c>
       <c r="I78" s="75" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J78" s="74"/>
     </row>
@@ -9204,7 +9204,7 @@
         <v>61</v>
       </c>
       <c r="I79" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J79" s="74"/>
     </row>
@@ -9213,16 +9213,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G80" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I80" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J80" s="74"/>
     </row>
@@ -9231,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>163</v>
@@ -9259,7 +9259,7 @@
         <v>103</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J82" s="74"/>
     </row>
@@ -9277,7 +9277,7 @@
         <v>61</v>
       </c>
       <c r="I83" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J83" s="74"/>
     </row>
@@ -9286,16 +9286,16 @@
         <v>21</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I84" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J84" s="74"/>
     </row>
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C85" s="55" t="s">
         <v>163</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="I86" s="75" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J86" s="74"/>
     </row>
@@ -9350,7 +9350,7 @@
         <v>61</v>
       </c>
       <c r="I87" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J87" s="74"/>
     </row>
@@ -9359,16 +9359,16 @@
         <v>21</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I88" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J88" s="74"/>
     </row>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C89" s="55" t="s">
         <v>163</v>
@@ -9405,7 +9405,7 @@
         <v>103</v>
       </c>
       <c r="I90" s="75" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J90" s="74"/>
     </row>
@@ -9423,7 +9423,7 @@
         <v>61</v>
       </c>
       <c r="I91" s="74" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J91" s="74"/>
     </row>
@@ -9432,16 +9432,16 @@
         <v>21</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G92" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I92" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J92" s="74"/>
     </row>
@@ -9450,13 +9450,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="D93" s="55" t="s">
         <v>881</v>
-      </c>
-      <c r="C93" s="55" t="s">
-        <v>882</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>883</v>
       </c>
       <c r="E93" s="55" t="s">
         <v>232</v>
@@ -9467,16 +9467,16 @@
         <v>21</v>
       </c>
       <c r="D94" s="54" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E94" s="54" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G94" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I94" s="54" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9484,16 +9484,16 @@
         <v>21</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G95" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I95" s="57" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9501,16 +9501,16 @@
         <v>21</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G96" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I96" s="54" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9518,10 +9518,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G97" s="54" t="s">
         <v>62</v>
@@ -9535,10 +9535,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G98" s="54" t="s">
         <v>62</v>
@@ -9552,16 +9552,16 @@
         <v>21</v>
       </c>
       <c r="D99" s="57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I99" s="57" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9569,16 +9569,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="57" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G100" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I100" s="75" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9586,16 +9586,16 @@
         <v>21</v>
       </c>
       <c r="D101" s="57" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G101" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I101" s="57" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9603,16 +9603,16 @@
         <v>21</v>
       </c>
       <c r="D102" s="57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G102" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I102" s="57" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9620,10 +9620,10 @@
         <v>21</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G103" s="54" t="s">
         <v>63</v>
@@ -9637,10 +9637,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E104" s="57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>63</v>
@@ -9654,10 +9654,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>62</v>
@@ -9671,10 +9671,10 @@
         <v>21</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G106" s="54" t="s">
         <v>62</v>
@@ -9688,10 +9688,10 @@
         <v>21</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>62</v>
@@ -9705,10 +9705,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E108" s="57" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>62</v>
@@ -9722,13 +9722,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C109" s="55" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E109" s="55" t="s">
         <v>232</v>
@@ -9739,16 +9739,16 @@
         <v>21</v>
       </c>
       <c r="D110" s="54" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E110" s="54" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G110" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I110" s="54" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9756,16 +9756,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E111" s="57" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G111" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I111" s="57" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9773,16 +9773,16 @@
         <v>21</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E112" s="57" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G112" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I112" s="54" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="113" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9790,10 +9790,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="57" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E113" s="57" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G113" s="54" t="s">
         <v>62</v>
@@ -9807,10 +9807,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E114" s="57" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G114" s="54" t="s">
         <v>62</v>
@@ -9824,16 +9824,16 @@
         <v>21</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E115" s="57" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G115" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I115" s="57" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="116" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9841,16 +9841,16 @@
         <v>21</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E116" s="57" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G116" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="117" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9858,16 +9858,16 @@
         <v>21</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E117" s="57" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G117" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I117" s="57" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="118" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9875,16 +9875,16 @@
         <v>21</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E118" s="57" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G118" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I118" s="57" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="119" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9892,10 +9892,10 @@
         <v>21</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G119" s="54" t="s">
         <v>63</v>
@@ -9909,10 +9909,10 @@
         <v>21</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E120" s="57" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G120" s="54" t="s">
         <v>63</v>
@@ -9926,10 +9926,10 @@
         <v>21</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G121" s="54" t="s">
         <v>62</v>
@@ -9943,10 +9943,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="57" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E122" s="57" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>62</v>
@@ -9960,10 +9960,10 @@
         <v>21</v>
       </c>
       <c r="D123" s="57" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E123" s="57" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G123" s="54" t="s">
         <v>62</v>
@@ -9977,10 +9977,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="57" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E124" s="57" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G124" s="54" t="s">
         <v>62</v>
@@ -10126,13 +10126,13 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
+        <v>818</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>820</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>821</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>822</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>467</v>
@@ -10155,13 +10155,13 @@
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>821</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>823</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>825</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>467</v>
@@ -10656,7 +10656,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>651</v>
@@ -10685,7 +10685,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>651</v>
@@ -10714,7 +10714,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>651</v>
@@ -10743,7 +10743,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>655</v>
@@ -10767,15 +10767,15 @@
     </row>
     <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>63</v>
@@ -10796,15 +10796,15 @@
     </row>
     <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>63</v>
@@ -10825,15 +10825,15 @@
     </row>
     <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>63</v>
@@ -10853,15 +10853,15 @@
     </row>
     <row r="29" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>63</v>
@@ -10881,15 +10881,15 @@
     </row>
     <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>63</v>
@@ -10909,15 +10909,15 @@
     </row>
     <row r="31" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>63</v>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="32" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>63</v>
@@ -10965,15 +10965,15 @@
     </row>
     <row r="33" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>63</v>
@@ -10993,12 +10993,12 @@
     </row>
     <row r="34" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="22" t="s">
@@ -11016,12 +11016,12 @@
     </row>
     <row r="35" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="22" t="s">
@@ -11039,12 +11039,12 @@
     </row>
     <row r="36" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="22" t="s">
@@ -11062,11 +11062,11 @@
     </row>
     <row r="37" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>63</v>
@@ -11083,10 +11083,10 @@
     </row>
     <row r="38" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>63</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="39" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>63</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>63</v>
@@ -11146,10 +11146,10 @@
     </row>
     <row r="41" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>63</v>

--- a/projects/SEB_template.xlsx
+++ b/projects/SEB_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2226,9 +2226,6 @@
     <t>integer giving the number of repetitions of the design</t>
   </si>
   <si>
-    <t>1.17.0</t>
-  </si>
-  <si>
     <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
   </si>
   <si>
@@ -2818,6 +2815,9 @@
   </si>
   <si>
     <t>../../../lib/calibration_data/gas_truth.json</t>
+  </si>
+  <si>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6487,8 +6487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6548,7 +6548,7 @@
         <v>468</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>728</v>
+        <v>925</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>609</v>
@@ -6645,7 +6645,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>470</v>
@@ -6656,7 +6656,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="22" t="s">
@@ -6988,7 +6988,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7014,13 +7014,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>449</v>
@@ -7044,13 +7044,13 @@
     </row>
     <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
+        <v>731</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="C44" s="22" t="s">
         <v>733</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>734</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -7126,7 +7126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -7311,13 +7311,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>736</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>67</v>
@@ -7330,17 +7330,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>738</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7348,17 +7348,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>165</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7366,17 +7366,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>742</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>743</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7384,17 +7384,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7402,17 +7402,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>748</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>749</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7420,17 +7420,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>751</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>752</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7438,17 +7438,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>754</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>755</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>757</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7474,17 +7474,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>760</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>761</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -7492,13 +7492,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>67</v>
@@ -7511,17 +7511,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>736</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>737</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>738</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7529,17 +7529,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E16" s="22" t="s">
         <v>165</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7547,17 +7547,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>741</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>742</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>743</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7565,17 +7565,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>745</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>746</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7583,17 +7583,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>748</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>749</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7601,17 +7601,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>751</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>752</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7619,17 +7619,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>754</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>755</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="22" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7637,17 +7637,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>757</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>758</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -7655,13 +7655,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="C23" s="37" t="s">
         <v>768</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>769</v>
-      </c>
       <c r="D23" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>232</v>
@@ -7713,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>69</v>
@@ -7750,10 +7750,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>771</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>772</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="21" t="s">
@@ -7768,10 +7768,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>773</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>774</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="45" t="s">
@@ -7805,10 +7805,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>775</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>776</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="21" t="s">
@@ -7823,10 +7823,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="21" t="s">
+        <v>776</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>777</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>778</v>
       </c>
       <c r="F30" s="48"/>
       <c r="G30" s="21" t="s">
@@ -7841,13 +7841,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="55" t="s">
+        <v>852</v>
+      </c>
+      <c r="C31" s="55" t="s">
         <v>853</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>854</v>
-      </c>
       <c r="D31" s="55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>67</v>
@@ -7888,10 +7888,10 @@
         <v>22</v>
       </c>
       <c r="D33" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="E33" s="59" t="s">
         <v>855</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>856</v>
       </c>
       <c r="F33" s="60"/>
       <c r="G33" s="59" t="s">
@@ -7925,13 +7925,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="55" t="s">
+        <v>856</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>857</v>
       </c>
-      <c r="C34" s="55" t="s">
-        <v>858</v>
-      </c>
       <c r="D34" s="55" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E34" s="55" t="s">
         <v>67</v>
@@ -7963,17 +7963,17 @@
         <v>22</v>
       </c>
       <c r="D36" s="65" t="s">
+        <v>858</v>
+      </c>
+      <c r="E36" s="65" t="s">
         <v>859</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>860</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="65" t="s">
         <v>63</v>
       </c>
       <c r="H36" s="65" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I36" s="61">
         <v>0</v>
@@ -8002,13 +8002,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>780</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>781</v>
-      </c>
       <c r="D37" s="49" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>67</v>
@@ -8040,17 +8040,17 @@
         <v>22</v>
       </c>
       <c r="D39" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>782</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>783</v>
       </c>
       <c r="F39" s="43"/>
       <c r="G39" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I39" s="26">
         <v>0.8</v>
@@ -8081,13 +8081,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>784</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>785</v>
-      </c>
       <c r="D40" s="49" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>67</v>
@@ -8098,7 +8098,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>125</v>
@@ -8119,17 +8119,17 @@
         <v>22</v>
       </c>
       <c r="D42" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>787</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>788</v>
       </c>
       <c r="F42" s="43"/>
       <c r="G42" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I42" s="26">
         <v>4</v>
@@ -8198,7 +8198,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>244</v>
@@ -8208,7 +8208,7 @@
         <v>63</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I45" s="26">
         <v>0</v>
@@ -8239,17 +8239,17 @@
         <v>22</v>
       </c>
       <c r="D46" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>790</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>791</v>
       </c>
       <c r="F46" s="43"/>
       <c r="G46" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I46" s="26">
         <v>0</v>
@@ -8283,10 +8283,10 @@
         <v>186</v>
       </c>
       <c r="C47" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>67</v>
@@ -8297,7 +8297,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>189</v>
@@ -8307,7 +8307,7 @@
         <v>63</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I48" s="26">
         <v>0</v>
@@ -8338,7 +8338,7 @@
         <v>22</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>191</v>
@@ -8348,7 +8348,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I49" s="26">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E50" s="22" t="s">
         <v>193</v>
@@ -8403,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>797</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>798</v>
-      </c>
       <c r="D51" s="52" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>67</v>
@@ -8434,10 +8434,10 @@
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="E52" s="48" t="s">
         <v>799</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>800</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48" t="s">
@@ -8475,10 +8475,10 @@
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="E53" s="48" t="s">
         <v>801</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>802</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48" t="s">
@@ -8515,10 +8515,10 @@
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="E54" s="48" t="s">
         <v>803</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>804</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="48" t="s">
@@ -8555,13 +8555,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C55" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="D55" s="68" t="s">
         <v>861</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>862</v>
       </c>
       <c r="E55" s="68" t="s">
         <v>67</v>
@@ -8593,7 +8593,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="71" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E56" s="71" t="s">
         <v>88</v>
@@ -8602,7 +8602,7 @@
         <v>103</v>
       </c>
       <c r="I56" s="71" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="57" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8610,10 +8610,10 @@
         <v>22</v>
       </c>
       <c r="D57" s="59" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G57" s="59" t="s">
         <v>63</v>
@@ -8643,13 +8643,13 @@
         <v>0</v>
       </c>
       <c r="B58" s="52" t="s">
+        <v>804</v>
+      </c>
+      <c r="C58" s="52" t="s">
         <v>805</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>806</v>
-      </c>
       <c r="D58" s="52" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>67</v>
@@ -8674,10 +8674,10 @@
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="48" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48" t="s">
@@ -8715,10 +8715,10 @@
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48" t="s">
@@ -8755,10 +8755,10 @@
       </c>
       <c r="C61" s="48"/>
       <c r="D61" s="48" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="48" t="s">
@@ -8795,13 +8795,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C62" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="D62" s="68" t="s">
         <v>861</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>862</v>
       </c>
       <c r="E62" s="68" t="s">
         <v>67</v>
@@ -8833,7 +8833,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E63" s="71" t="s">
         <v>88</v>
@@ -8842,7 +8842,7 @@
         <v>103</v>
       </c>
       <c r="I63" s="71" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="64" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -8850,10 +8850,10 @@
         <v>22</v>
       </c>
       <c r="D64" s="59" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G64" s="59" t="s">
         <v>63</v>
@@ -8883,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="C65" s="49" t="s">
         <v>810</v>
       </c>
-      <c r="C65" s="49" t="s">
-        <v>811</v>
-      </c>
       <c r="D65" s="49" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E65" s="49" t="s">
         <v>67</v>
@@ -8900,17 +8900,17 @@
         <v>21</v>
       </c>
       <c r="D66" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="E66" s="45" t="s">
         <v>812</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>813</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="45" t="s">
         <v>63</v>
       </c>
       <c r="H66" s="45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I66" s="45">
         <v>1</v>
@@ -8941,17 +8941,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="E67" s="26" t="s">
         <v>814</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>815</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="26" t="s">
         <v>63</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I67" s="26">
         <v>1450</v>
@@ -8982,13 +8982,13 @@
         <v>0</v>
       </c>
       <c r="B68" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="C68" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="C68" s="37" t="s">
-        <v>817</v>
-      </c>
       <c r="D68" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>232</v>
@@ -9012,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C69" s="55" t="s">
         <v>163</v>
@@ -9040,7 +9040,7 @@
         <v>103</v>
       </c>
       <c r="I70" s="57" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J70" s="74"/>
     </row>
@@ -9058,7 +9058,7 @@
         <v>61</v>
       </c>
       <c r="I71" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J71" s="74"/>
     </row>
@@ -9067,16 +9067,16 @@
         <v>21</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I72" s="75" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J72" s="74"/>
     </row>
@@ -9085,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="55" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C73" s="55" t="s">
         <v>163</v>
@@ -9113,7 +9113,7 @@
         <v>103</v>
       </c>
       <c r="I74" s="76" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J74" s="74"/>
     </row>
@@ -9131,7 +9131,7 @@
         <v>61</v>
       </c>
       <c r="I75" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J75" s="74"/>
     </row>
@@ -9140,16 +9140,16 @@
         <v>21</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I76" s="57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J76" s="74"/>
     </row>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C77" s="55" t="s">
         <v>163</v>
@@ -9186,7 +9186,7 @@
         <v>103</v>
       </c>
       <c r="I78" s="75" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J78" s="74"/>
     </row>
@@ -9204,7 +9204,7 @@
         <v>61</v>
       </c>
       <c r="I79" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J79" s="74"/>
     </row>
@@ -9213,16 +9213,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G80" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I80" s="57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J80" s="74"/>
     </row>
@@ -9231,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="55" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C81" s="55" t="s">
         <v>163</v>
@@ -9259,7 +9259,7 @@
         <v>103</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J82" s="74"/>
     </row>
@@ -9277,7 +9277,7 @@
         <v>61</v>
       </c>
       <c r="I83" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J83" s="74"/>
     </row>
@@ -9286,16 +9286,16 @@
         <v>21</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I84" s="57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J84" s="74"/>
     </row>
@@ -9304,7 +9304,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C85" s="55" t="s">
         <v>163</v>
@@ -9332,7 +9332,7 @@
         <v>103</v>
       </c>
       <c r="I86" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J86" s="74"/>
     </row>
@@ -9350,7 +9350,7 @@
         <v>61</v>
       </c>
       <c r="I87" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J87" s="74"/>
     </row>
@@ -9359,16 +9359,16 @@
         <v>21</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I88" s="57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J88" s="74"/>
     </row>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="55" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C89" s="55" t="s">
         <v>163</v>
@@ -9405,7 +9405,7 @@
         <v>103</v>
       </c>
       <c r="I90" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J90" s="74"/>
     </row>
@@ -9423,7 +9423,7 @@
         <v>61</v>
       </c>
       <c r="I91" s="74" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J91" s="74"/>
     </row>
@@ -9432,16 +9432,16 @@
         <v>21</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G92" s="39" t="s">
         <v>103</v>
       </c>
       <c r="I92" s="57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J92" s="74"/>
     </row>
@@ -9450,13 +9450,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="C93" s="55" t="s">
         <v>879</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="D93" s="55" t="s">
         <v>880</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>881</v>
       </c>
       <c r="E93" s="55" t="s">
         <v>232</v>
@@ -9467,16 +9467,16 @@
         <v>21</v>
       </c>
       <c r="D94" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="E94" s="54" t="s">
         <v>882</v>
-      </c>
-      <c r="E94" s="54" t="s">
-        <v>883</v>
       </c>
       <c r="G94" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I94" s="54" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9484,16 +9484,16 @@
         <v>21</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G95" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I95" s="57" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9501,16 +9501,16 @@
         <v>21</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G96" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I96" s="54" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9518,10 +9518,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="57" t="s">
+        <v>886</v>
+      </c>
+      <c r="E97" s="57" t="s">
         <v>887</v>
-      </c>
-      <c r="E97" s="57" t="s">
-        <v>888</v>
       </c>
       <c r="G97" s="54" t="s">
         <v>62</v>
@@ -9535,10 +9535,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G98" s="54" t="s">
         <v>62</v>
@@ -9552,16 +9552,16 @@
         <v>21</v>
       </c>
       <c r="D99" s="57" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I99" s="57" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9569,16 +9569,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G100" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I100" s="75" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9586,16 +9586,16 @@
         <v>21</v>
       </c>
       <c r="D101" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G101" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I101" s="57" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9603,16 +9603,16 @@
         <v>21</v>
       </c>
       <c r="D102" s="57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G102" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I102" s="57" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9620,10 +9620,10 @@
         <v>21</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G103" s="54" t="s">
         <v>63</v>
@@ -9637,10 +9637,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E104" s="57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>63</v>
@@ -9654,10 +9654,10 @@
         <v>21</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>62</v>
@@ -9671,10 +9671,10 @@
         <v>21</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G106" s="54" t="s">
         <v>62</v>
@@ -9688,10 +9688,10 @@
         <v>21</v>
       </c>
       <c r="D107" s="57" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>62</v>
@@ -9705,10 +9705,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E108" s="57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>62</v>
@@ -9722,13 +9722,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="55" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C109" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="D109" s="55" t="s">
         <v>880</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>881</v>
       </c>
       <c r="E109" s="55" t="s">
         <v>232</v>
@@ -9739,16 +9739,16 @@
         <v>21</v>
       </c>
       <c r="D110" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="E110" s="54" t="s">
         <v>882</v>
-      </c>
-      <c r="E110" s="54" t="s">
-        <v>883</v>
       </c>
       <c r="G110" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I110" s="54" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9756,16 +9756,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="57" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E111" s="57" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G111" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I111" s="57" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9773,16 +9773,16 @@
         <v>21</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E112" s="57" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G112" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I112" s="54" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="113" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9790,10 +9790,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="57" t="s">
+        <v>886</v>
+      </c>
+      <c r="E113" s="57" t="s">
         <v>887</v>
-      </c>
-      <c r="E113" s="57" t="s">
-        <v>888</v>
       </c>
       <c r="G113" s="54" t="s">
         <v>62</v>
@@ -9807,10 +9807,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E114" s="57" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G114" s="54" t="s">
         <v>62</v>
@@ -9824,16 +9824,16 @@
         <v>21</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E115" s="57" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G115" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I115" s="57" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9841,16 +9841,16 @@
         <v>21</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E116" s="57" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G116" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="117" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9858,16 +9858,16 @@
         <v>21</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E117" s="57" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G117" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I117" s="57" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="118" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9875,16 +9875,16 @@
         <v>21</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E118" s="57" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G118" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I118" s="57" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="119" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9892,10 +9892,10 @@
         <v>21</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G119" s="54" t="s">
         <v>63</v>
@@ -9909,10 +9909,10 @@
         <v>21</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E120" s="57" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G120" s="54" t="s">
         <v>63</v>
@@ -9926,10 +9926,10 @@
         <v>21</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G121" s="54" t="s">
         <v>62</v>
@@ -9943,10 +9943,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="57" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E122" s="57" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>62</v>
@@ -9960,10 +9960,10 @@
         <v>21</v>
       </c>
       <c r="D123" s="57" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E123" s="57" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G123" s="54" t="s">
         <v>62</v>
@@ -9977,10 +9977,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E124" s="57" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G124" s="54" t="s">
         <v>62</v>
@@ -10126,13 +10126,13 @@
     </row>
     <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>819</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>820</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>467</v>
@@ -10155,13 +10155,13 @@
     </row>
     <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>822</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>823</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>467</v>
@@ -10656,7 +10656,7 @@
       <c r="B22" s="15"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>651</v>
@@ -10685,7 +10685,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>651</v>
@@ -10714,7 +10714,7 @@
       <c r="B24" s="15"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>651</v>
@@ -10743,7 +10743,7 @@
       <c r="B25" s="15"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>655</v>
@@ -10767,15 +10767,15 @@
     </row>
     <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>63</v>
@@ -10796,15 +10796,15 @@
     </row>
     <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>63</v>
@@ -10825,15 +10825,15 @@
     </row>
     <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F28" s="22" t="s">
         <v>63</v>
@@ -10853,15 +10853,15 @@
     </row>
     <row r="29" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F29" s="22" t="s">
         <v>63</v>
@@ -10881,15 +10881,15 @@
     </row>
     <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F30" s="22" t="s">
         <v>63</v>
@@ -10909,15 +10909,15 @@
     </row>
     <row r="31" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>63</v>
@@ -10937,15 +10937,15 @@
     </row>
     <row r="32" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>63</v>
@@ -10965,15 +10965,15 @@
     </row>
     <row r="33" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>63</v>
@@ -10993,12 +10993,12 @@
     </row>
     <row r="34" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="22" t="s">
@@ -11016,12 +11016,12 @@
     </row>
     <row r="35" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="22" t="s">
@@ -11039,12 +11039,12 @@
     </row>
     <row r="36" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="22" t="s">
@@ -11062,11 +11062,11 @@
     </row>
     <row r="37" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B37" s="21"/>
       <c r="D37" s="21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F37" s="22" t="s">
         <v>63</v>
@@ -11083,10 +11083,10 @@
     </row>
     <row r="38" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>63</v>
@@ -11104,10 +11104,10 @@
     </row>
     <row r="39" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>63</v>
@@ -11125,10 +11125,10 @@
     </row>
     <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>63</v>
@@ -11146,10 +11146,10 @@
     </row>
     <row r="41" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>63</v>

--- a/projects/SEB_template.xlsx
+++ b/projects/SEB_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6487,7 +6487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -7126,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7650,167 +7650,166 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
+    <row r="23" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>767</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>768</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="b">
+      <c r="B23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="26">
+        <v>15</v>
+      </c>
+      <c r="K25" s="44">
+        <v>0</v>
+      </c>
+      <c r="L25" s="44">
+        <v>100</v>
+      </c>
+      <c r="M25" s="44">
+        <v>15</v>
+      </c>
+      <c r="N25" s="44">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="44">
         <v>1</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="G25" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="26" t="s">
+      <c r="R25" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="26">
-        <v>15</v>
-      </c>
-      <c r="K26" s="44">
-        <v>0</v>
-      </c>
-      <c r="L26" s="44">
-        <v>100</v>
-      </c>
-      <c r="M26" s="44">
-        <v>15</v>
-      </c>
-      <c r="N26" s="44">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="44">
+      <c r="I26" s="21">
         <v>1</v>
       </c>
-      <c r="R26" s="26" t="s">
+    </row>
+    <row r="27" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>773</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+      <c r="K27" s="47">
+        <v>0</v>
+      </c>
+      <c r="L27" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="47">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="45" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="F27" s="39"/>
-      <c r="G27" s="21" t="s">
+    <row r="28" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>773</v>
-      </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
-      <c r="K28" s="47">
-        <v>0</v>
-      </c>
-      <c r="L28" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="47">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="47">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="45" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="F29" s="39"/>
+        <v>777</v>
+      </c>
+      <c r="F29" s="48"/>
       <c r="G29" s="21" t="s">
         <v>63</v>
       </c>
@@ -7818,379 +7817,402 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>776</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="21" t="s">
+    <row r="30" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>852</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
+      <c r="B31" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="Q31" s="58"/>
+    </row>
+    <row r="32" spans="1:18" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>855</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="b">
+      <c r="I32" s="61">
+        <v>0</v>
+      </c>
+      <c r="J32" s="62"/>
+      <c r="K32" s="63">
+        <v>-40</v>
+      </c>
+      <c r="L32" s="63">
+        <v>40</v>
+      </c>
+      <c r="M32" s="63">
+        <v>0</v>
+      </c>
+      <c r="N32" s="63">
+        <f>(L32-K32)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O32" s="63"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="65" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="55" t="s">
-        <v>852</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>853</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>853</v>
-      </c>
-      <c r="E31" s="55" t="s">
+      <c r="B33" s="55" t="s">
+        <v>856</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>857</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>857</v>
+      </c>
+      <c r="E33" s="55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="54" t="s">
+    <row r="34" spans="1:18" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="54" t="s">
+      <c r="F34" s="39"/>
+      <c r="G34" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54" t="s">
+      <c r="I34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J34" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="Q32" s="58"/>
-    </row>
-    <row r="33" spans="1:18" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="59" t="s">
+    </row>
+    <row r="35" spans="1:18" s="65" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="59" t="s">
-        <v>854</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>855</v>
-      </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="59" t="s">
+      <c r="D35" s="65" t="s">
+        <v>858</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>859</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="61">
-        <v>0</v>
-      </c>
-      <c r="J33" s="62"/>
-      <c r="K33" s="63">
-        <v>-40</v>
-      </c>
-      <c r="L33" s="63">
-        <v>40</v>
-      </c>
-      <c r="M33" s="63">
-        <v>0</v>
-      </c>
-      <c r="N33" s="63">
-        <f>(L33-K33)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O33" s="63"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="65" t="s">
+      <c r="H35" s="65" t="s">
+        <v>778</v>
+      </c>
+      <c r="I35" s="61">
+        <v>0</v>
+      </c>
+      <c r="J35" s="66"/>
+      <c r="K35" s="67">
+        <v>-80</v>
+      </c>
+      <c r="L35" s="67">
+        <v>80</v>
+      </c>
+      <c r="M35" s="67">
+        <v>0</v>
+      </c>
+      <c r="N35" s="67">
+        <f>(L35-K35)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="R35" s="65" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="b">
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="55" t="s">
-        <v>856</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>857</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>857</v>
-      </c>
-      <c r="E34" s="55" t="s">
+      <c r="B36" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="E36" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>372</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="54" t="s">
+    <row r="37" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I35" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="J35" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="65" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="65" t="s">
+      <c r="I37" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="65" t="s">
-        <v>858</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>859</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="65" t="s">
+      <c r="D38" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="65" t="s">
+      <c r="H38" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="I36" s="61">
-        <v>0</v>
-      </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67">
-        <v>-80</v>
-      </c>
-      <c r="L36" s="67">
-        <v>80</v>
-      </c>
-      <c r="M36" s="67">
-        <v>0</v>
-      </c>
-      <c r="N36" s="67">
-        <f>(L36-K36)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O36" s="67"/>
-      <c r="R36" s="65" t="s">
+      <c r="I38" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="J38" s="50"/>
+      <c r="K38" s="44">
+        <v>0.78</v>
+      </c>
+      <c r="L38" s="44">
+        <v>0.98</v>
+      </c>
+      <c r="M38" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="N38" s="44">
+        <f>(L38-K38)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O38" s="44">
+        <v>1</v>
+      </c>
+      <c r="R38" s="26" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="b">
+    <row r="39" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>779</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>780</v>
-      </c>
-      <c r="E37" s="49" t="s">
+      <c r="B39" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E38" s="21" t="s">
+    <row r="40" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="21" t="s">
+      <c r="F40" s="48"/>
+      <c r="G40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I40" s="51" t="s">
         <v>416</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J40" s="21" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="26" t="s">
+    <row r="41" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="26" t="s">
+      <c r="D41" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H41" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="I39" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="44">
-        <v>0.78</v>
-      </c>
-      <c r="L39" s="44">
-        <v>0.98</v>
-      </c>
-      <c r="M39" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="N39" s="44">
-        <f>(L39-K39)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O39" s="44">
+      <c r="I41" s="26">
+        <v>4</v>
+      </c>
+      <c r="J41" s="50"/>
+      <c r="K41" s="44">
+        <v>2</v>
+      </c>
+      <c r="L41" s="44">
+        <v>5</v>
+      </c>
+      <c r="M41" s="44">
+        <v>4</v>
+      </c>
+      <c r="N41" s="44">
+        <f>(L41-K41)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O41" s="44">
+        <v>0.25</v>
+      </c>
+      <c r="R41" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="R39" s="26" t="s">
+      <c r="B42" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="48"/>
+      <c r="G43" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="I44" s="26">
+        <v>0</v>
+      </c>
+      <c r="J44" s="50"/>
+      <c r="K44" s="44">
+        <v>-20</v>
+      </c>
+      <c r="L44" s="44">
+        <v>14</v>
+      </c>
+      <c r="M44" s="44">
+        <v>0</v>
+      </c>
+      <c r="N44" s="44">
+        <f>(L44-K44)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O44" s="44">
+        <v>1</v>
+      </c>
+      <c r="R44" s="26" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>783</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>785</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="J41" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" s="26" t="s">
-        <v>778</v>
-      </c>
-      <c r="I42" s="26">
-        <v>4</v>
-      </c>
-      <c r="J42" s="50"/>
-      <c r="K42" s="44">
-        <v>2</v>
-      </c>
-      <c r="L42" s="44">
-        <v>5</v>
-      </c>
-      <c r="M42" s="44">
-        <v>4</v>
-      </c>
-      <c r="N42" s="44">
-        <f>(L42-K42)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O42" s="44">
-        <v>0.25</v>
-      </c>
-      <c r="R42" s="26" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="J44" s="21" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8198,10 +8220,10 @@
         <v>22</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>244</v>
+        <v>790</v>
       </c>
       <c r="F45" s="43"/>
       <c r="G45" s="26" t="s">
@@ -8215,17 +8237,17 @@
       </c>
       <c r="J45" s="50"/>
       <c r="K45" s="44">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L45" s="44">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M45" s="44">
         <v>0</v>
       </c>
       <c r="N45" s="44">
         <f>(L45-K45)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O45" s="44">
         <v>1</v>
@@ -8234,62 +8256,62 @@
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>789</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>790</v>
-      </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="26" t="s">
+      <c r="D47" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="26" t="s">
-        <v>778</v>
-      </c>
-      <c r="I46" s="26">
-        <v>0</v>
-      </c>
-      <c r="J46" s="50"/>
-      <c r="K46" s="44">
-        <v>-25</v>
-      </c>
-      <c r="L46" s="44">
-        <v>30</v>
-      </c>
-      <c r="M46" s="44">
-        <v>0</v>
-      </c>
-      <c r="N46" s="44">
-        <f>(L46-K46)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O46" s="44">
+      <c r="H47" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="I47" s="26">
+        <v>0</v>
+      </c>
+      <c r="J47" s="50"/>
+      <c r="K47" s="44">
+        <v>-6</v>
+      </c>
+      <c r="L47" s="44">
+        <v>2</v>
+      </c>
+      <c r="M47" s="44">
+        <v>0</v>
+      </c>
+      <c r="N47" s="44">
+        <f>(L47-K47)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O47" s="44">
         <v>1</v>
       </c>
-      <c r="R46" s="26" t="s">
+      <c r="R47" s="26" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B47" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="D47" s="49" t="s">
-        <v>791</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8297,10 +8319,10 @@
         <v>22</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="26" t="s">
@@ -8317,14 +8339,14 @@
         <v>-6</v>
       </c>
       <c r="L48" s="44">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M48" s="44">
         <v>0</v>
       </c>
       <c r="N48" s="44">
         <f>(L48-K48)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O48" s="44">
         <v>1</v>
@@ -8333,111 +8355,111 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
+    <row r="49" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>796</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>797</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+    </row>
+    <row r="51" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>794</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="26" t="s">
+      <c r="C51" s="48"/>
+      <c r="D51" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="I49" s="26">
-        <v>0</v>
-      </c>
-      <c r="J49" s="50"/>
-      <c r="K49" s="44">
-        <v>-6</v>
-      </c>
-      <c r="L49" s="44">
-        <v>3.9</v>
-      </c>
-      <c r="M49" s="44">
-        <v>0</v>
-      </c>
-      <c r="N49" s="44">
-        <f>(L49-K49)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O49" s="44">
+      <c r="H51" s="48"/>
+      <c r="I51" s="48">
         <v>1</v>
       </c>
-      <c r="R49" s="26" t="s">
+      <c r="J51" s="48"/>
+      <c r="K51" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M51" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="N51" s="22">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O51" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="R51" s="22" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I50" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B51" s="52" t="s">
-        <v>796</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>797</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>797</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="49"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="49"/>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="49"/>
-    </row>
     <row r="52" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48"/>
       <c r="B52" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="48"/>
       <c r="D52" s="48" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F52" s="48"/>
       <c r="G52" s="48" t="s">
@@ -8449,7 +8471,7 @@
       </c>
       <c r="J52" s="48"/>
       <c r="K52" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L52" s="48">
         <v>4.5</v>
@@ -8457,8 +8479,7 @@
       <c r="M52" s="3">
         <v>1.75</v>
       </c>
-      <c r="N52" s="22">
-        <f>1.5/6</f>
+      <c r="N52" s="48">
         <v>0.25</v>
       </c>
       <c r="O52" s="48">
@@ -8475,10 +8496,10 @@
       </c>
       <c r="C53" s="48"/>
       <c r="D53" s="48" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="48" t="s">
@@ -8490,194 +8511,195 @@
       </c>
       <c r="J53" s="48"/>
       <c r="K53" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L53" s="48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M53" s="3">
         <v>1.75</v>
       </c>
-      <c r="N53" s="48">
+      <c r="N53" s="3">
         <v>0.25</v>
       </c>
-      <c r="O53" s="48">
+      <c r="O53" s="3">
         <v>0.1</v>
       </c>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="22" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48" t="s">
+    <row r="54" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>864</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>861</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="69"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+    </row>
+    <row r="55" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>862</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I55" s="71" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48" t="s">
-        <v>802</v>
-      </c>
-      <c r="E54" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="F54" s="48"/>
-      <c r="G54" s="48" t="s">
+      <c r="D56" s="59" t="s">
+        <v>865</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="G56" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48">
+      <c r="I56" s="61">
+        <v>0</v>
+      </c>
+      <c r="K56" s="59">
+        <v>-50</v>
+      </c>
+      <c r="L56" s="59">
+        <v>200</v>
+      </c>
+      <c r="M56" s="59">
+        <v>0</v>
+      </c>
+      <c r="N56" s="67">
+        <f>(L56-K56)/6</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R56" s="65" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>804</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>805</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>805</v>
+      </c>
+      <c r="E57" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+    </row>
+    <row r="58" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48" t="s">
+        <v>806</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48">
         <v>1</v>
       </c>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48">
+      <c r="J58" s="48"/>
+      <c r="K58" s="48">
         <v>0.5</v>
       </c>
-      <c r="L54" s="48">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="L58" s="48">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3">
         <v>1.75</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N58" s="22">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O58" s="48">
         <v>0.1</v>
       </c>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="22" t="s">
+      <c r="R58" s="22" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B55" s="68" t="s">
-        <v>864</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>860</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>861</v>
-      </c>
-      <c r="E55" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="69"/>
-      <c r="M55" s="69"/>
-      <c r="N55" s="69"/>
-      <c r="O55" s="69"/>
-      <c r="P55" s="69"/>
-      <c r="Q55" s="69"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-    </row>
-    <row r="56" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>862</v>
-      </c>
-      <c r="E56" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I56" s="71" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="59" t="s">
-        <v>865</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>863</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="I57" s="61">
-        <v>0</v>
-      </c>
-      <c r="K57" s="59">
-        <v>-50</v>
-      </c>
-      <c r="L57" s="59">
-        <v>200</v>
-      </c>
-      <c r="M57" s="59">
-        <v>0</v>
-      </c>
-      <c r="N57" s="67">
-        <f>(L57-K57)/6</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="R57" s="65" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>804</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>805</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>805</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="49"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-    </row>
     <row r="59" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="48"/>
       <c r="B59" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="48"/>
       <c r="D59" s="48" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="48" t="s">
@@ -8697,8 +8719,7 @@
       <c r="M59" s="3">
         <v>1.75</v>
       </c>
-      <c r="N59" s="22">
-        <f>1.5/6</f>
+      <c r="N59" s="48">
         <v>0.25</v>
       </c>
       <c r="O59" s="48">
@@ -8715,10 +8736,10 @@
       </c>
       <c r="C60" s="48"/>
       <c r="D60" s="48" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="48" t="s">
@@ -8733,750 +8754,714 @@
         <v>0.5</v>
       </c>
       <c r="L60" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" s="3">
         <v>1.75</v>
       </c>
-      <c r="N60" s="48">
+      <c r="N60" s="3">
         <v>0.25</v>
       </c>
-      <c r="O60" s="48">
+      <c r="O60" s="3">
         <v>0.1</v>
       </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="22" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48" t="s">
+    <row r="61" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>866</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>861</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+    </row>
+    <row r="62" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>862</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I62" s="71" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="E61" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48" t="s">
+      <c r="D63" s="59" t="s">
+        <v>867</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>863</v>
+      </c>
+      <c r="G63" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H61" s="48"/>
-      <c r="I61" s="48">
+      <c r="I63" s="61">
+        <v>0</v>
+      </c>
+      <c r="K63" s="59">
+        <v>-50</v>
+      </c>
+      <c r="L63" s="59">
+        <v>200</v>
+      </c>
+      <c r="M63" s="59">
+        <v>0</v>
+      </c>
+      <c r="N63" s="67">
+        <f>(L63-K63)/6</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="R63" s="65" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="J61" s="48"/>
-      <c r="K61" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L61" s="48">
-        <v>3</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="B64" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="E64" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>811</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>812</v>
+      </c>
+      <c r="F65" s="39"/>
+      <c r="G65" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="I65" s="45">
+        <v>1</v>
+      </c>
+      <c r="J65" s="53"/>
+      <c r="K65" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="L65" s="47">
+        <v>1</v>
+      </c>
+      <c r="M65" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="N65" s="47">
+        <f>(L65-K65)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O65" s="47">
         <v>0.1</v>
       </c>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="22" t="s">
+      <c r="R65" s="26" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>866</v>
-      </c>
-      <c r="C62" s="68" t="s">
-        <v>860</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>861</v>
-      </c>
-      <c r="E62" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="69"/>
-      <c r="L62" s="69"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-      <c r="O62" s="69"/>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="68"/>
-      <c r="S62" s="68"/>
-      <c r="T62" s="68"/>
-      <c r="U62" s="68"/>
-      <c r="V62" s="68"/>
-      <c r="W62" s="68"/>
-      <c r="X62" s="68"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-    </row>
-    <row r="63" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="71" t="s">
-        <v>862</v>
-      </c>
-      <c r="E63" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G63" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I63" s="71" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="59" t="s">
+    <row r="66" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="59" t="s">
-        <v>867</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>863</v>
-      </c>
-      <c r="G64" s="59" t="s">
+      <c r="D66" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I64" s="61">
-        <v>0</v>
-      </c>
-      <c r="K64" s="59">
-        <v>-50</v>
-      </c>
-      <c r="L64" s="59">
-        <v>200</v>
-      </c>
-      <c r="M64" s="59">
-        <v>0</v>
-      </c>
-      <c r="N64" s="67">
-        <f>(L64-K64)/6</f>
-        <v>41.666666666666664</v>
-      </c>
-      <c r="R64" s="65" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="49" t="s">
-        <v>809</v>
-      </c>
-      <c r="C65" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="D65" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="E65" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>811</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>812</v>
-      </c>
-      <c r="F66" s="39"/>
-      <c r="G66" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="H66" s="45" t="s">
+      <c r="H66" s="26" t="s">
         <v>778</v>
       </c>
-      <c r="I66" s="45">
-        <v>1</v>
-      </c>
-      <c r="J66" s="53"/>
-      <c r="K66" s="47">
-        <v>0.9</v>
-      </c>
-      <c r="L66" s="47">
-        <v>1</v>
-      </c>
-      <c r="M66" s="47">
-        <v>0.95</v>
-      </c>
-      <c r="N66" s="47">
+      <c r="I66" s="26">
+        <v>1450</v>
+      </c>
+      <c r="J66" s="50"/>
+      <c r="K66" s="44">
+        <v>0</v>
+      </c>
+      <c r="L66" s="44">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="44">
+        <v>1450</v>
+      </c>
+      <c r="N66" s="44">
         <f>(L66-K66)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O66" s="47">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O66" s="44">
+        <v>50</v>
       </c>
       <c r="R66" s="26" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>814</v>
-      </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>778</v>
-      </c>
-      <c r="I67" s="26">
-        <v>1450</v>
-      </c>
-      <c r="J67" s="50"/>
-      <c r="K67" s="44">
-        <v>0</v>
-      </c>
-      <c r="L67" s="44">
-        <v>3000</v>
-      </c>
-      <c r="M67" s="44">
-        <v>1450</v>
-      </c>
-      <c r="N67" s="44">
-        <f>(L67-K67)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O67" s="44">
-        <v>50</v>
-      </c>
-      <c r="R67" s="26" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>815</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>816</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-    </row>
-    <row r="69" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="b">
+    <row r="67" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B67" s="55" t="s">
         <v>870</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C67" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D67" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E69" s="72" t="s">
+      <c r="E67" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
+      <c r="I67" s="73"/>
+      <c r="J67" s="73"/>
+    </row>
+    <row r="68" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="J68" s="74"/>
+    </row>
+    <row r="69" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I69" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J69" s="74"/>
     </row>
     <row r="70" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I70" s="57" t="s">
-        <v>871</v>
+      <c r="I70" s="75" t="s">
+        <v>873</v>
       </c>
       <c r="J70" s="74"/>
     </row>
-    <row r="71" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E71" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G71" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J71" s="74"/>
+    <row r="71" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>874</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="73"/>
+      <c r="J71" s="73"/>
     </row>
     <row r="72" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I72" s="75" t="s">
-        <v>873</v>
+      <c r="I72" s="76" t="s">
+        <v>875</v>
       </c>
       <c r="J72" s="74"/>
     </row>
-    <row r="73" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B73" s="55" t="s">
-        <v>874</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E73" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
+    <row r="73" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E73" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I73" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J73" s="74"/>
     </row>
     <row r="74" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E74" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I74" s="76" t="s">
-        <v>875</v>
+      <c r="I74" s="57" t="s">
+        <v>873</v>
       </c>
       <c r="J74" s="74"/>
     </row>
-    <row r="75" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G75" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J75" s="74"/>
+    <row r="75" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
     </row>
     <row r="76" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="G76" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I76" s="57" t="s">
-        <v>873</v>
+      <c r="I76" s="75" t="s">
+        <v>877</v>
       </c>
       <c r="J76" s="74"/>
     </row>
-    <row r="77" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>876</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D77" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E77" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I77" s="73"/>
-      <c r="J77" s="73"/>
+    <row r="77" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I77" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J77" s="74"/>
     </row>
     <row r="78" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G78" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="75" t="s">
-        <v>877</v>
+      <c r="I78" s="57" t="s">
+        <v>873</v>
       </c>
       <c r="J78" s="74"/>
     </row>
-    <row r="79" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J79" s="74"/>
+    <row r="79" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>904</v>
+      </c>
+      <c r="C79" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
     </row>
     <row r="80" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="G80" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I80" s="57" t="s">
-        <v>873</v>
+      <c r="I80" s="75" t="s">
+        <v>901</v>
       </c>
       <c r="J80" s="74"/>
     </row>
-    <row r="81" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B81" s="55" t="s">
-        <v>904</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D81" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I81" s="73"/>
-      <c r="J81" s="73"/>
+    <row r="81" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E81" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I81" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J81" s="74"/>
     </row>
     <row r="82" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E82" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I82" s="75" t="s">
-        <v>901</v>
+      <c r="I82" s="57" t="s">
+        <v>873</v>
       </c>
       <c r="J82" s="74"/>
     </row>
-    <row r="83" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J83" s="74"/>
+    <row r="83" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>903</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
     </row>
     <row r="84" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I84" s="57" t="s">
-        <v>873</v>
+      <c r="I84" s="75" t="s">
+        <v>902</v>
       </c>
       <c r="J84" s="74"/>
     </row>
-    <row r="85" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B85" s="55" t="s">
-        <v>903</v>
-      </c>
-      <c r="C85" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
+    <row r="85" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J85" s="74"/>
     </row>
     <row r="86" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E86" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I86" s="75" t="s">
-        <v>902</v>
+      <c r="I86" s="57" t="s">
+        <v>873</v>
       </c>
       <c r="J86" s="74"/>
     </row>
-    <row r="87" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I87" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J87" s="74"/>
+    <row r="87" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>906</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
     </row>
     <row r="88" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>872</v>
+        <v>165</v>
       </c>
       <c r="G88" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="57" t="s">
-        <v>873</v>
+      <c r="I88" s="75" t="s">
+        <v>907</v>
       </c>
       <c r="J88" s="74"/>
     </row>
-    <row r="89" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>906</v>
-      </c>
-      <c r="C89" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
+    <row r="89" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="E89" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I89" s="74" t="s">
+        <v>905</v>
+      </c>
+      <c r="J89" s="74"/>
     </row>
     <row r="90" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="39" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="E90" s="57" t="s">
-        <v>165</v>
+        <v>872</v>
       </c>
       <c r="G90" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="I90" s="75" t="s">
-        <v>907</v>
+      <c r="I90" s="57" t="s">
+        <v>873</v>
       </c>
       <c r="J90" s="74"/>
     </row>
-    <row r="91" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E91" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="G91" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="74" t="s">
-        <v>905</v>
-      </c>
-      <c r="J91" s="74"/>
-    </row>
-    <row r="92" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="57" t="s">
-        <v>872</v>
-      </c>
-      <c r="E92" s="57" t="s">
-        <v>872</v>
-      </c>
-      <c r="G92" s="39" t="s">
+    <row r="91" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="55" t="s">
+        <v>878</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>882</v>
+      </c>
+      <c r="G92" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I92" s="57" t="s">
-        <v>873</v>
-      </c>
-      <c r="J92" s="74"/>
-    </row>
-    <row r="93" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B93" s="55" t="s">
-        <v>878</v>
-      </c>
-      <c r="C93" s="55" t="s">
-        <v>879</v>
-      </c>
-      <c r="D93" s="55" t="s">
-        <v>880</v>
-      </c>
-      <c r="E93" s="55" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I92" s="54" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="57" t="s">
+        <v>883</v>
+      </c>
+      <c r="E93" s="57" t="s">
+        <v>883</v>
+      </c>
+      <c r="G93" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I93" s="57" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="54" t="s">
-        <v>881</v>
-      </c>
-      <c r="E94" s="54" t="s">
-        <v>882</v>
+      <c r="D94" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="E94" s="57" t="s">
+        <v>885</v>
       </c>
       <c r="G94" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I94" s="54" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9484,16 +9469,16 @@
         <v>21</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G95" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I95" s="57" t="s">
-        <v>884</v>
+        <v>62</v>
+      </c>
+      <c r="I95" s="57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9501,16 +9486,16 @@
         <v>21</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G96" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I96" s="54" t="s">
-        <v>908</v>
+        <v>62</v>
+      </c>
+      <c r="I96" s="57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9518,16 +9503,16 @@
         <v>21</v>
       </c>
       <c r="D97" s="57" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G97" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I97" s="57" t="b">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="I97" s="57" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9535,16 +9520,16 @@
         <v>21</v>
       </c>
       <c r="D98" s="57" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G98" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I98" s="57" t="b">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="I98" s="75" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9552,16 +9537,16 @@
         <v>21</v>
       </c>
       <c r="D99" s="57" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I99" s="57" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9569,16 +9554,16 @@
         <v>21</v>
       </c>
       <c r="D100" s="57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G100" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I100" s="75" t="s">
-        <v>877</v>
+      <c r="I100" s="57" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9586,16 +9571,16 @@
         <v>21</v>
       </c>
       <c r="D101" s="57" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G101" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I101" s="57" t="s">
-        <v>913</v>
+        <v>63</v>
+      </c>
+      <c r="I101" s="57">
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9603,16 +9588,16 @@
         <v>21</v>
       </c>
       <c r="D102" s="57" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G102" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I102" s="57" t="s">
-        <v>894</v>
+        <v>63</v>
+      </c>
+      <c r="I102" s="77">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9620,16 +9605,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G103" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I103" s="57">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="I103" s="57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9637,15 +9622,15 @@
         <v>21</v>
       </c>
       <c r="D104" s="57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E104" s="57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G104" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I104" s="77">
+        <v>62</v>
+      </c>
+      <c r="I104" s="57" t="b">
         <v>1</v>
       </c>
     </row>
@@ -9654,16 +9639,16 @@
         <v>21</v>
       </c>
       <c r="D105" s="57" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>62</v>
       </c>
       <c r="I105" s="57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9671,10 +9656,10 @@
         <v>21</v>
       </c>
       <c r="D106" s="57" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G106" s="54" t="s">
         <v>62</v>
@@ -9683,72 +9668,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D107" s="57" t="s">
-        <v>899</v>
-      </c>
-      <c r="E107" s="57" t="s">
-        <v>899</v>
-      </c>
-      <c r="G107" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I107" s="57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" s="55" t="s">
+        <v>909</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="D107" s="55" t="s">
+        <v>880</v>
+      </c>
+      <c r="E107" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B108" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="57" t="s">
-        <v>900</v>
-      </c>
-      <c r="E108" s="57" t="s">
-        <v>900</v>
+      <c r="D108" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="E108" s="54" t="s">
+        <v>882</v>
       </c>
       <c r="G108" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I108" s="57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="B109" s="55" t="s">
-        <v>909</v>
-      </c>
-      <c r="C109" s="55" t="s">
-        <v>879</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>880</v>
-      </c>
-      <c r="E109" s="55" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I108" s="54" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="57" t="s">
+        <v>883</v>
+      </c>
+      <c r="E109" s="57" t="s">
+        <v>883</v>
+      </c>
+      <c r="G109" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="I109" s="57" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="54" t="s">
-        <v>881</v>
-      </c>
-      <c r="E110" s="54" t="s">
-        <v>882</v>
+      <c r="D110" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="E110" s="57" t="s">
+        <v>885</v>
       </c>
       <c r="G110" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I110" s="54" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9756,16 +9741,16 @@
         <v>21</v>
       </c>
       <c r="D111" s="57" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E111" s="57" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="G111" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I111" s="57" t="s">
-        <v>884</v>
+        <v>62</v>
+      </c>
+      <c r="I111" s="57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -9773,163 +9758,163 @@
         <v>21</v>
       </c>
       <c r="D112" s="57" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="E112" s="57" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G112" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I112" s="57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="E113" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="G113" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I112" s="54" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="57" t="s">
-        <v>886</v>
-      </c>
-      <c r="E113" s="57" t="s">
-        <v>887</v>
-      </c>
-      <c r="G113" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I113" s="57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I113" s="57" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="57" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E114" s="57" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="G114" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I114" s="57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="I114" s="75" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="57" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E115" s="57" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G115" s="54" t="s">
         <v>103</v>
       </c>
       <c r="I115" s="57" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B116" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E116" s="57" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G116" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="I116" s="75" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="57" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E117" s="57" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G117" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I117" s="57" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I117" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="57" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E118" s="57" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="G118" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="I118" s="57" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I118" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G119" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I119" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I119" s="57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B120" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E120" s="57" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="G120" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I120" s="77">
+        <v>62</v>
+      </c>
+      <c r="I120" s="57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="G121" s="54" t="s">
         <v>62</v>
@@ -9938,15 +9923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="54" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="57" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E122" s="57" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>62</v>
@@ -9955,39 +9940,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" s="57" t="s">
-        <v>899</v>
-      </c>
-      <c r="E123" s="57" t="s">
-        <v>899</v>
-      </c>
-      <c r="G123" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I123" s="57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>900</v>
-      </c>
-      <c r="E124" s="57" t="s">
-        <v>900</v>
-      </c>
-      <c r="G124" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I124" s="57" t="b">
+    <row r="123" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="37" t="b">
         <v>1</v>
       </c>
+      <c r="B123" s="37" t="s">
+        <v>767</v>
+      </c>
+      <c r="C123" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="D123" s="37" t="s">
+        <v>768</v>
+      </c>
+      <c r="E123" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+    </row>
+    <row r="124" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="D124" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="E124" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="37"/>
+      <c r="O124" s="37"/>
+      <c r="P124" s="37"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA3"/>

--- a/projects/SEB_template.xlsx
+++ b/projects/SEB_template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="22044" windowHeight="4524" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$14:$C$15</definedName>
     <definedName name="Workflow">Lookups!$E$14:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2817,7 +2817,7 @@
     <t>../../../lib/calibration_data/gas_truth.json</t>
   </si>
   <si>
-    <t>1.21.14</t>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6487,21 +6487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="12"/>
       <c r="B1" s="19"/>
       <c r="C1" s="12"/>
@@ -6511,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>434</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>468</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>469</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="22" customFormat="1">
       <c r="A13" s="22" t="s">
         <v>24</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>465</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>452</v>
       </c>
@@ -6729,12 +6729,12 @@
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="22" customFormat="1">
       <c r="B21" s="17"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A22" s="6" t="s">
         <v>450</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,1,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v>r</v>
@@ -6768,7 +6768,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,2,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v>levels</v>
@@ -6784,7 +6784,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,3,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v>grid_jump</v>
@@ -6800,7 +6800,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="22" customFormat="1">
       <c r="A26" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,4,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v>type</v>
@@ -6815,7 +6815,7 @@
       </c>
       <c r="D26" s="25"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="22" customFormat="1">
       <c r="A27" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,5,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="D27" s="25"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="22" customFormat="1">
       <c r="A28" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,6,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="D28" s="25"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="22" customFormat="1">
       <c r="A29" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,7,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6860,7 +6860,7 @@
       </c>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="22" customFormat="1">
       <c r="A30" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,8,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="D30" s="25"/>
     </row>
-    <row r="31" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="22" customFormat="1">
       <c r="A31" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,9,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6890,7 +6890,7 @@
       </c>
       <c r="D31" s="25"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$28,10,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6906,7 +6906,7 @@
       <c r="D32" s="25"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="22" customFormat="1">
       <c r="A33" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,11,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="D33" s="25"/>
     </row>
-    <row r="34" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="22" customFormat="1">
       <c r="A34" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,12,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6937,7 +6937,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="22" customFormat="1">
       <c r="A35" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,13,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6953,7 +6953,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="22" customFormat="1">
       <c r="A36" s="22" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))=0,"",INDEX(Lookups!$C$19:$AI$32,14,3*MATCH(Setup!$B20,Lookups!$A$19:$A$30,0)-2))</f>
         <v/>
@@ -6969,7 +6969,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -6983,7 +6983,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28">
       <c r="A41" s="22" t="s">
         <v>31</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A43" s="6" t="s">
         <v>34</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="22" customFormat="1">
       <c r="A44" s="22" t="s">
         <v>731</v>
       </c>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
         <v>689</v>
       </c>
@@ -7070,17 +7070,17 @@
         <v>692</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="2" customFormat="1">
       <c r="B47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="22" customFormat="1">
       <c r="B48" s="17"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
         <v>693</v>
       </c>
@@ -7113,7 +7113,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7126,37 +7125,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="22" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="1"/>
-    <col min="17" max="17" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="17" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" style="1"/>
-    <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -7192,7 +7191,7 @@
       <c r="Y1" s="79"/>
       <c r="Z1" s="79"/>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
@@ -7228,7 +7227,7 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
     </row>
-    <row r="3" spans="1:26" s="9" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="9" customFormat="1" ht="45">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -7306,7 +7305,7 @@
       </c>
       <c r="Z3" s="32"/>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="37" customFormat="1">
       <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
@@ -7325,7 +7324,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="22" customFormat="1">
       <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="22" customFormat="1">
       <c r="B6" s="22" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7360,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="22" customFormat="1">
       <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="22" customFormat="1">
       <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
@@ -7397,7 +7396,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="22" customFormat="1">
       <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="22" customFormat="1">
       <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="22" customFormat="1">
       <c r="B11" s="22" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="22" customFormat="1">
       <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="22" customFormat="1">
       <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
@@ -7487,7 +7486,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="37" customFormat="1">
       <c r="A14" s="37" t="b">
         <v>1</v>
       </c>
@@ -7506,7 +7505,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="22" customFormat="1">
       <c r="B15" s="22" t="s">
         <v>21</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="22" customFormat="1">
       <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="22" customFormat="1">
       <c r="B17" s="22" t="s">
         <v>21</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="22" customFormat="1">
       <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
@@ -7578,7 +7577,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="22" customFormat="1">
       <c r="B19" s="22" t="s">
         <v>21</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="22" customFormat="1">
       <c r="B20" s="22" t="s">
         <v>21</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="22" customFormat="1">
       <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
@@ -7632,7 +7631,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="22" customFormat="1">
       <c r="B22" s="22" t="s">
         <v>21</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="41" customFormat="1">
       <c r="A23" s="41" t="b">
         <v>1</v>
       </c>
@@ -7667,7 +7666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="21" customFormat="1">
       <c r="B24" s="21" t="s">
         <v>21</v>
       </c>
@@ -7689,7 +7688,7 @@
       </c>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B25" s="26" t="s">
         <v>22</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="21" customFormat="1">
       <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="45" customFormat="1">
       <c r="B27" s="45" t="s">
         <v>21</v>
       </c>
@@ -7781,7 +7780,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="21" customFormat="1">
       <c r="B28" s="21" t="s">
         <v>21</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="21" customFormat="1" ht="15">
       <c r="B29" s="21" t="s">
         <v>21</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A30" s="55" t="b">
         <v>1</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="A31" s="54"/>
       <c r="B31" s="54" t="s">
         <v>21</v>
@@ -7864,7 +7863,7 @@
       <c r="O31" s="56"/>
       <c r="Q31" s="58"/>
     </row>
-    <row r="32" spans="1:18" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="59" customFormat="1" ht="15.5" customHeight="1">
       <c r="B32" s="59" t="s">
         <v>22</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A33" s="55" t="b">
         <v>1</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="54" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="54" customFormat="1" ht="15.5" customHeight="1">
       <c r="B34" s="54" t="s">
         <v>21</v>
       </c>
@@ -7939,7 +7938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="65" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="65" customFormat="1" ht="15.5" customHeight="1">
       <c r="B35" s="65" t="s">
         <v>22</v>
       </c>
@@ -7978,7 +7977,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="49" t="b">
         <v>1</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="21" customFormat="1" ht="15">
       <c r="B37" s="21" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B38" s="26" t="s">
         <v>22</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="49" t="b">
         <v>1</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="21" customFormat="1" ht="15">
       <c r="B40" s="21" t="s">
         <v>21</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B41" s="26" t="s">
         <v>22</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="49" t="b">
         <v>1</v>
       </c>
@@ -8153,7 +8152,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="21" customFormat="1" ht="15">
       <c r="B43" s="21" t="s">
         <v>21</v>
       </c>
@@ -8174,7 +8173,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B44" s="26" t="s">
         <v>22</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B45" s="26" t="s">
         <v>22</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="49" customFormat="1">
       <c r="A46" s="49" t="b">
         <v>1</v>
       </c>
@@ -8273,7 +8272,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B47" s="26" t="s">
         <v>22</v>
       </c>
@@ -8314,7 +8313,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B48" s="26" t="s">
         <v>22</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="49" spans="1:26" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" s="22" customFormat="1">
       <c r="B49" s="22" t="s">
         <v>21</v>
       </c>
@@ -8379,7 +8378,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A50" s="52" t="b">
         <v>0</v>
       </c>
@@ -8409,7 +8408,7 @@
       <c r="Q50" s="49"/>
       <c r="R50" s="49"/>
     </row>
-    <row r="51" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="B51" s="48" t="s">
         <v>22</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A52" s="48"/>
       <c r="B52" s="48" t="s">
         <v>22</v>
@@ -8489,7 +8488,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A53" s="48"/>
       <c r="B53" s="48" t="s">
         <v>22</v>
@@ -8531,7 +8530,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" s="70" customFormat="1" ht="15.5" customHeight="1">
       <c r="A54" s="68" t="b">
         <v>1</v>
       </c>
@@ -8569,7 +8568,7 @@
       <c r="Y54" s="68"/>
       <c r="Z54" s="68"/>
     </row>
-    <row r="55" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" s="71" customFormat="1" ht="15.5" customHeight="1">
       <c r="B55" s="71" t="s">
         <v>21</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" s="59" customFormat="1" ht="15.5" customHeight="1">
       <c r="B56" s="59" t="s">
         <v>22</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A57" s="52" t="b">
         <v>0</v>
       </c>
@@ -8649,7 +8648,7 @@
       <c r="Q57" s="49"/>
       <c r="R57" s="49"/>
     </row>
-    <row r="58" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="B58" s="48" t="s">
         <v>22</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A59" s="48"/>
       <c r="B59" s="48" t="s">
         <v>22</v>
@@ -8729,7 +8728,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" s="22" customFormat="1" ht="15">
       <c r="A60" s="48"/>
       <c r="B60" s="48" t="s">
         <v>22</v>
@@ -8771,7 +8770,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="70" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" s="70" customFormat="1" ht="15.5" customHeight="1">
       <c r="A61" s="68" t="b">
         <v>1</v>
       </c>
@@ -8809,7 +8808,7 @@
       <c r="Y61" s="68"/>
       <c r="Z61" s="68"/>
     </row>
-    <row r="62" spans="1:26" s="71" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" s="71" customFormat="1" ht="15.5" customHeight="1">
       <c r="B62" s="71" t="s">
         <v>21</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="59" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" s="59" customFormat="1" ht="15.5" customHeight="1">
       <c r="B63" s="59" t="s">
         <v>22</v>
       </c>
@@ -8859,7 +8858,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" s="49" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="49" t="b">
         <v>1</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="45" customFormat="1">
       <c r="B65" s="45" t="s">
         <v>21</v>
       </c>
@@ -8917,7 +8916,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="26" customFormat="1" ht="15">
       <c r="B66" s="26" t="s">
         <v>22</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A67" s="55" t="b">
         <v>1</v>
       </c>
@@ -8977,7 +8976,7 @@
       <c r="I67" s="73"/>
       <c r="J67" s="73"/>
     </row>
-    <row r="68" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B68" s="39" t="s">
         <v>21</v>
       </c>
@@ -8995,7 +8994,7 @@
       </c>
       <c r="J68" s="74"/>
     </row>
-    <row r="69" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B69" s="39" t="s">
         <v>21</v>
       </c>
@@ -9013,7 +9012,7 @@
       </c>
       <c r="J69" s="74"/>
     </row>
-    <row r="70" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B70" s="39" t="s">
         <v>21</v>
       </c>
@@ -9031,7 +9030,7 @@
       </c>
       <c r="J70" s="74"/>
     </row>
-    <row r="71" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A71" s="55" t="b">
         <v>1</v>
       </c>
@@ -9050,7 +9049,7 @@
       <c r="I71" s="73"/>
       <c r="J71" s="73"/>
     </row>
-    <row r="72" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B72" s="39" t="s">
         <v>21</v>
       </c>
@@ -9068,7 +9067,7 @@
       </c>
       <c r="J72" s="74"/>
     </row>
-    <row r="73" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B73" s="39" t="s">
         <v>21</v>
       </c>
@@ -9086,7 +9085,7 @@
       </c>
       <c r="J73" s="74"/>
     </row>
-    <row r="74" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B74" s="39" t="s">
         <v>21</v>
       </c>
@@ -9104,7 +9103,7 @@
       </c>
       <c r="J74" s="74"/>
     </row>
-    <row r="75" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A75" s="55" t="b">
         <v>1</v>
       </c>
@@ -9123,7 +9122,7 @@
       <c r="I75" s="73"/>
       <c r="J75" s="73"/>
     </row>
-    <row r="76" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B76" s="39" t="s">
         <v>21</v>
       </c>
@@ -9141,7 +9140,7 @@
       </c>
       <c r="J76" s="74"/>
     </row>
-    <row r="77" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B77" s="39" t="s">
         <v>21</v>
       </c>
@@ -9159,7 +9158,7 @@
       </c>
       <c r="J77" s="74"/>
     </row>
-    <row r="78" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B78" s="39" t="s">
         <v>21</v>
       </c>
@@ -9177,7 +9176,7 @@
       </c>
       <c r="J78" s="74"/>
     </row>
-    <row r="79" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A79" s="55" t="b">
         <v>1</v>
       </c>
@@ -9196,7 +9195,7 @@
       <c r="I79" s="73"/>
       <c r="J79" s="73"/>
     </row>
-    <row r="80" spans="1:18" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B80" s="39" t="s">
         <v>21</v>
       </c>
@@ -9214,7 +9213,7 @@
       </c>
       <c r="J80" s="74"/>
     </row>
-    <row r="81" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B81" s="39" t="s">
         <v>21</v>
       </c>
@@ -9232,7 +9231,7 @@
       </c>
       <c r="J81" s="74"/>
     </row>
-    <row r="82" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B82" s="39" t="s">
         <v>21</v>
       </c>
@@ -9250,7 +9249,7 @@
       </c>
       <c r="J82" s="74"/>
     </row>
-    <row r="83" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A83" s="55" t="b">
         <v>1</v>
       </c>
@@ -9269,7 +9268,7 @@
       <c r="I83" s="73"/>
       <c r="J83" s="73"/>
     </row>
-    <row r="84" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B84" s="39" t="s">
         <v>21</v>
       </c>
@@ -9287,7 +9286,7 @@
       </c>
       <c r="J84" s="74"/>
     </row>
-    <row r="85" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B85" s="39" t="s">
         <v>21</v>
       </c>
@@ -9305,7 +9304,7 @@
       </c>
       <c r="J85" s="74"/>
     </row>
-    <row r="86" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B86" s="39" t="s">
         <v>21</v>
       </c>
@@ -9323,7 +9322,7 @@
       </c>
       <c r="J86" s="74"/>
     </row>
-    <row r="87" spans="1:10" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" s="55" customFormat="1" ht="15.5" customHeight="1">
       <c r="A87" s="55" t="b">
         <v>1</v>
       </c>
@@ -9342,7 +9341,7 @@
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
     </row>
-    <row r="88" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B88" s="39" t="s">
         <v>21</v>
       </c>
@@ -9360,7 +9359,7 @@
       </c>
       <c r="J88" s="74"/>
     </row>
-    <row r="89" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B89" s="39" t="s">
         <v>21</v>
       </c>
@@ -9378,7 +9377,7 @@
       </c>
       <c r="J89" s="74"/>
     </row>
-    <row r="90" spans="1:10" s="57" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" s="57" customFormat="1" ht="15.5" customHeight="1">
       <c r="B90" s="39" t="s">
         <v>21</v>
       </c>
@@ -9396,7 +9395,7 @@
       </c>
       <c r="J90" s="74"/>
     </row>
-    <row r="91" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" s="55" customFormat="1">
       <c r="A91" s="68" t="b">
         <v>1</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" s="54" customFormat="1">
       <c r="B92" s="54" t="s">
         <v>21</v>
       </c>
@@ -9430,7 +9429,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" s="57" customFormat="1">
       <c r="B93" s="54" t="s">
         <v>21</v>
       </c>
@@ -9447,7 +9446,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" s="57" customFormat="1">
       <c r="B94" s="54" t="s">
         <v>21</v>
       </c>
@@ -9464,7 +9463,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="57" customFormat="1">
       <c r="B95" s="54" t="s">
         <v>21</v>
       </c>
@@ -9481,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" s="57" customFormat="1">
       <c r="B96" s="54" t="s">
         <v>21</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="57" customFormat="1">
       <c r="B97" s="54" t="s">
         <v>21</v>
       </c>
@@ -9515,7 +9514,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="57" customFormat="1">
       <c r="B98" s="54" t="s">
         <v>21</v>
       </c>
@@ -9532,7 +9531,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="57" customFormat="1">
       <c r="B99" s="54" t="s">
         <v>21</v>
       </c>
@@ -9549,7 +9548,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="57" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="57" customFormat="1">
       <c r="B101" s="54" t="s">
         <v>21</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="57" customFormat="1">
       <c r="B102" s="54" t="s">
         <v>21</v>
       </c>
@@ -9600,7 +9599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="57" customFormat="1">
       <c r="B103" s="54" t="s">
         <v>21</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="57" customFormat="1">
       <c r="B104" s="54" t="s">
         <v>21</v>
       </c>
@@ -9634,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="57" customFormat="1">
       <c r="B105" s="54" t="s">
         <v>21</v>
       </c>
@@ -9651,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="57" customFormat="1">
       <c r="B106" s="54" t="s">
         <v>21</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="55" customFormat="1">
       <c r="A107" s="68" t="b">
         <v>1</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="54" customFormat="1">
       <c r="B108" s="54" t="s">
         <v>21</v>
       </c>
@@ -9702,7 +9701,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="57" customFormat="1">
       <c r="B109" s="54" t="s">
         <v>21</v>
       </c>
@@ -9719,7 +9718,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="57" customFormat="1">
       <c r="B110" s="54" t="s">
         <v>21</v>
       </c>
@@ -9736,7 +9735,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="57" customFormat="1">
       <c r="B111" s="54" t="s">
         <v>21</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="57" customFormat="1">
       <c r="B112" s="54" t="s">
         <v>21</v>
       </c>
@@ -9770,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" s="57" customFormat="1">
       <c r="B113" s="54" t="s">
         <v>21</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" s="57" customFormat="1">
       <c r="B114" s="54" t="s">
         <v>21</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="115" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" s="57" customFormat="1">
       <c r="B115" s="54" t="s">
         <v>21</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" s="57" customFormat="1">
       <c r="B116" s="54" t="s">
         <v>21</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="117" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" s="57" customFormat="1">
       <c r="B117" s="54" t="s">
         <v>21</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" s="57" customFormat="1">
       <c r="B118" s="54" t="s">
         <v>21</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" s="57" customFormat="1">
       <c r="B119" s="54" t="s">
         <v>21</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" s="57" customFormat="1">
       <c r="B120" s="54" t="s">
         <v>21</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" s="57" customFormat="1">
       <c r="B121" s="54" t="s">
         <v>21</v>
       </c>
@@ -9923,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" s="57" customFormat="1">
       <c r="B122" s="54" t="s">
         <v>21</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" s="37" customFormat="1">
       <c r="A123" s="37" t="b">
         <v>1</v>
       </c>
@@ -9959,7 +9958,7 @@
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
     </row>
-    <row r="124" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" s="22" customFormat="1">
       <c r="A124" s="37" t="b">
         <v>0</v>
       </c>
@@ -9995,7 +9994,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10010,28 +10008,28 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -10048,7 +10046,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="15">
       <c r="A2" s="32" t="s">
         <v>460</v>
       </c>
@@ -10087,7 +10085,7 @@
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="45">
       <c r="A3" s="32" t="s">
         <v>620</v>
       </c>
@@ -10124,7 +10122,7 @@
       </c>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="22" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>817</v>
       </c>
@@ -10153,7 +10151,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="22" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>820</v>
       </c>
@@ -10183,7 +10181,7 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>626</v>
       </c>
@@ -10215,7 +10213,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="22" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>629</v>
       </c>
@@ -10247,7 +10245,7 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="22" customFormat="1">
       <c r="A8" s="21" t="s">
         <v>656</v>
       </c>
@@ -10276,7 +10274,7 @@
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="22" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>658</v>
       </c>
@@ -10305,7 +10303,7 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="22" customFormat="1">
       <c r="A10" s="21" t="s">
         <v>660</v>
       </c>
@@ -10333,7 +10331,7 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="21" t="s">
         <v>662</v>
       </c>
@@ -10361,7 +10359,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="21" t="s">
         <v>664</v>
       </c>
@@ -10389,7 +10387,7 @@
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="21" t="s">
         <v>666</v>
       </c>
@@ -10417,7 +10415,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="21" t="s">
         <v>668</v>
       </c>
@@ -10446,7 +10444,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="21" t="s">
         <v>670</v>
       </c>
@@ -10475,7 +10473,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="22" customFormat="1">
       <c r="A16" s="21" t="s">
         <v>672</v>
       </c>
@@ -10504,7 +10502,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="22" customFormat="1">
       <c r="A17" s="21" t="s">
         <v>674</v>
       </c>
@@ -10533,7 +10531,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="22" customFormat="1">
       <c r="A18" s="21" t="s">
         <v>676</v>
       </c>
@@ -10562,7 +10560,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="22" customFormat="1">
       <c r="A19" s="21" t="s">
         <v>678</v>
       </c>
@@ -10591,7 +10589,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="22" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>680</v>
       </c>
@@ -10620,7 +10618,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="22" customFormat="1">
       <c r="A21" s="21" t="s">
         <v>682</v>
       </c>
@@ -10649,7 +10647,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="22" customFormat="1">
       <c r="A22" s="21" t="s">
         <v>650</v>
       </c>
@@ -10678,7 +10676,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="22" customFormat="1">
       <c r="A23" s="21" t="s">
         <v>652</v>
       </c>
@@ -10707,7 +10705,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="22" customFormat="1">
       <c r="A24" s="21" t="s">
         <v>653</v>
       </c>
@@ -10736,7 +10734,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="22" customFormat="1">
       <c r="A25" s="21" t="s">
         <v>654</v>
       </c>
@@ -10765,7 +10763,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
     </row>
-    <row r="26" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="22" customFormat="1">
       <c r="A26" s="21" t="s">
         <v>827</v>
       </c>
@@ -10794,7 +10792,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
     </row>
-    <row r="27" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="22" customFormat="1">
       <c r="A27" s="21" t="s">
         <v>829</v>
       </c>
@@ -10823,7 +10821,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
     </row>
-    <row r="28" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="22" customFormat="1">
       <c r="A28" s="21" t="s">
         <v>831</v>
       </c>
@@ -10851,7 +10849,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
     </row>
-    <row r="29" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="22" customFormat="1">
       <c r="A29" s="21" t="s">
         <v>833</v>
       </c>
@@ -10879,7 +10877,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="22" customFormat="1">
       <c r="A30" s="21" t="s">
         <v>835</v>
       </c>
@@ -10907,7 +10905,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="22" customFormat="1">
       <c r="A31" s="21" t="s">
         <v>837</v>
       </c>
@@ -10935,7 +10933,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="22" customFormat="1">
       <c r="A32" s="21" t="s">
         <v>839</v>
       </c>
@@ -10963,7 +10961,7 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="22" customFormat="1">
       <c r="A33" s="21" t="s">
         <v>841</v>
       </c>
@@ -10991,7 +10989,7 @@
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="22" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>843</v>
       </c>
@@ -11014,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="22" customFormat="1">
       <c r="A35" s="21" t="s">
         <v>845</v>
       </c>
@@ -11037,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="22" customFormat="1">
       <c r="A36" s="21" t="s">
         <v>847</v>
       </c>
@@ -11060,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="22" customFormat="1">
       <c r="A37" s="21" t="s">
         <v>849</v>
       </c>
@@ -11081,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="26" customFormat="1">
       <c r="A38" s="26" t="s">
         <v>918</v>
       </c>
@@ -11102,7 +11100,7 @@
       </c>
       <c r="K38" s="78"/>
     </row>
-    <row r="39" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="26" customFormat="1">
       <c r="A39" s="26" t="s">
         <v>919</v>
       </c>
@@ -11123,7 +11121,7 @@
       </c>
       <c r="K39" s="78"/>
     </row>
-    <row r="40" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="26" customFormat="1">
       <c r="A40" s="26" t="s">
         <v>920</v>
       </c>
@@ -11144,7 +11142,7 @@
       </c>
       <c r="K40" s="78"/>
     </row>
-    <row r="41" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" s="26" customFormat="1">
       <c r="A41" s="26" t="s">
         <v>921</v>
       </c>
@@ -11165,168 +11163,167 @@
       </c>
       <c r="K41" s="78"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="B42" s="21"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="B43" s="21"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="B44" s="21"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="B46" s="21"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="B47" s="21"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="B48" s="21"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="21"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="21"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="21"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="21"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="21"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="21"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="21"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="21"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="21"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="21"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="21"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="21"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="21"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="21"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="21"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="21"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="21"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="21"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="21"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="21"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="21"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="21"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="21"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="21"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2">
       <c r="B74" s="21"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2">
       <c r="B75" s="21"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2">
       <c r="B76" s="21"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" s="21"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2">
       <c r="B78" s="21"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2">
       <c r="B79" s="21"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2">
       <c r="B80" s="21"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2">
       <c r="B81" s="21"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2">
       <c r="B82" s="21"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2">
       <c r="B83" s="21"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2">
       <c r="B84" s="21"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" s="21"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2">
       <c r="B86" s="21"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2">
       <c r="B87" s="21"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2">
       <c r="B88" s="21"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2">
       <c r="B89" s="21"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2">
       <c r="B90" s="21"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2">
       <c r="B91" s="21"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2">
       <c r="B92" s="21"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2">
       <c r="B93" s="21"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2">
       <c r="B94" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11339,23 +11336,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R366"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A311" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="10" t="b">
         <v>0</v>
       </c>
@@ -11374,7 +11371,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>21</v>
@@ -11395,7 +11392,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
         <v>21</v>
@@ -11418,7 +11415,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>21</v>
@@ -11441,7 +11438,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
@@ -11464,7 +11461,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
         <v>21</v>
@@ -11487,7 +11484,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
@@ -11510,7 +11507,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -11533,7 +11530,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>21</v>
@@ -11556,7 +11553,7 @@
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>21</v>
@@ -11579,7 +11576,7 @@
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10" t="b">
         <v>0</v>
       </c>
@@ -11598,7 +11595,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>21</v>
@@ -11619,7 +11616,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>21</v>
@@ -11642,7 +11639,7 @@
       </c>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>21</v>
@@ -11665,7 +11662,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>21</v>
@@ -11688,7 +11685,7 @@
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>21</v>
@@ -11711,7 +11708,7 @@
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>21</v>
@@ -11734,7 +11731,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
@@ -11757,7 +11754,7 @@
       </c>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -11780,7 +11777,7 @@
       </c>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>21</v>
@@ -11803,7 +11800,7 @@
       </c>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10" t="b">
         <v>0</v>
       </c>
@@ -11822,7 +11819,7 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -11845,7 +11842,7 @@
       </c>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>21</v>
@@ -11868,7 +11865,7 @@
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>21</v>
@@ -11891,7 +11888,7 @@
       </c>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>21</v>
@@ -11914,7 +11911,7 @@
       </c>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>21</v>
@@ -11937,7 +11934,7 @@
       </c>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>21</v>
@@ -11960,7 +11957,7 @@
       </c>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>21</v>
@@ -11983,7 +11980,7 @@
       </c>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>21</v>
@@ -12006,7 +12003,7 @@
       </c>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>21</v>
@@ -12029,7 +12026,7 @@
       </c>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10" t="b">
         <v>0</v>
       </c>
@@ -12048,7 +12045,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>21</v>
@@ -12069,7 +12066,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>21</v>
@@ -12092,7 +12089,7 @@
       </c>
       <c r="I33" s="10"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>21</v>
@@ -12115,7 +12112,7 @@
       </c>
       <c r="I34" s="10"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>21</v>
@@ -12138,7 +12135,7 @@
       </c>
       <c r="I35" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>21</v>
@@ -12161,7 +12158,7 @@
       </c>
       <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>21</v>
@@ -12184,7 +12181,7 @@
       </c>
       <c r="I37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>21</v>
@@ -12207,7 +12204,7 @@
       </c>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>21</v>
@@ -12230,7 +12227,7 @@
       </c>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>21</v>
@@ -12253,7 +12250,7 @@
       </c>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10" t="b">
         <v>0</v>
       </c>
@@ -12272,7 +12269,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>21</v>
@@ -12293,7 +12290,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>21</v>
@@ -12316,7 +12313,7 @@
       </c>
       <c r="I43" s="10"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>21</v>
@@ -12339,7 +12336,7 @@
       </c>
       <c r="I44" s="10"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>21</v>
@@ -12362,7 +12359,7 @@
       </c>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>21</v>
@@ -12385,7 +12382,7 @@
       </c>
       <c r="I46" s="10"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>21</v>
@@ -12408,7 +12405,7 @@
       </c>
       <c r="I47" s="10"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>21</v>
@@ -12431,7 +12428,7 @@
       </c>
       <c r="I48" s="10"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>21</v>
@@ -12454,7 +12451,7 @@
       </c>
       <c r="I49" s="10"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>21</v>
@@ -12477,7 +12474,7 @@
       </c>
       <c r="I50" s="10"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10" t="b">
         <v>0</v>
       </c>
@@ -12496,7 +12493,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>21</v>
@@ -12517,7 +12514,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>21</v>
@@ -12540,7 +12537,7 @@
       </c>
       <c r="I53" s="10"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>21</v>
@@ -12563,7 +12560,7 @@
       </c>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>21</v>
@@ -12586,7 +12583,7 @@
       </c>
       <c r="I55" s="10"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>21</v>
@@ -12609,7 +12606,7 @@
       </c>
       <c r="I56" s="10"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>21</v>
@@ -12632,7 +12629,7 @@
       </c>
       <c r="I57" s="10"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>21</v>
@@ -12655,7 +12652,7 @@
       </c>
       <c r="I58" s="10"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>21</v>
@@ -12678,7 +12675,7 @@
       </c>
       <c r="I59" s="10"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>21</v>
@@ -12701,7 +12698,7 @@
       </c>
       <c r="I60" s="10"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10" t="b">
         <v>0</v>
       </c>
@@ -12720,7 +12717,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>21</v>
@@ -12741,7 +12738,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>21</v>
@@ -12766,7 +12763,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>21</v>
@@ -12789,7 +12786,7 @@
       </c>
       <c r="I64" s="10"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>21</v>
@@ -12812,7 +12809,7 @@
       </c>
       <c r="I65" s="10"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>21</v>
@@ -12835,7 +12832,7 @@
       </c>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
         <v>21</v>
@@ -12858,7 +12855,7 @@
       </c>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10"/>
       <c r="B68" s="10" t="s">
         <v>21</v>
@@ -12881,7 +12878,7 @@
       </c>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>21</v>
@@ -12904,7 +12901,7 @@
       </c>
       <c r="I69" s="10"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>21</v>
@@ -12927,7 +12924,7 @@
       </c>
       <c r="I70" s="10"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>21</v>
@@ -12950,7 +12947,7 @@
       </c>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10" t="b">
         <v>0</v>
       </c>
@@ -12969,7 +12966,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>21</v>
@@ -12990,7 +12987,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>21</v>
@@ -13013,7 +13010,7 @@
       </c>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
         <v>21</v>
@@ -13038,7 +13035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>21</v>
@@ -13061,7 +13058,7 @@
       </c>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>21</v>
@@ -13084,7 +13081,7 @@
       </c>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
         <v>21</v>
@@ -13107,7 +13104,7 @@
       </c>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>21</v>
@@ -13130,7 +13127,7 @@
       </c>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>21</v>
@@ -13153,7 +13150,7 @@
       </c>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
         <v>21</v>
@@ -13176,7 +13173,7 @@
       </c>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>21</v>
@@ -13199,7 +13196,7 @@
       </c>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>21</v>
@@ -13222,7 +13219,7 @@
       </c>
       <c r="I83" s="10"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>21</v>
@@ -13245,7 +13242,7 @@
       </c>
       <c r="I84" s="10"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>21</v>
@@ -13268,7 +13265,7 @@
       </c>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="10" t="b">
         <v>0</v>
       </c>
@@ -13287,7 +13284,7 @@
       <c r="H86" s="10"/>
       <c r="I86" s="10"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>21</v>
@@ -13310,7 +13307,7 @@
       </c>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>21</v>
@@ -13333,7 +13330,7 @@
       </c>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>21</v>
@@ -13356,7 +13353,7 @@
       </c>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
         <v>21</v>
@@ -13379,7 +13376,7 @@
       </c>
       <c r="I90" s="10"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="10"/>
       <c r="B91" s="10" t="s">
         <v>21</v>
@@ -13402,7 +13399,7 @@
       </c>
       <c r="I91" s="10"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="10"/>
       <c r="B92" s="10" t="s">
         <v>21</v>
@@ -13425,7 +13422,7 @@
       </c>
       <c r="I92" s="10"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>21</v>
@@ -13448,7 +13445,7 @@
       </c>
       <c r="I93" s="10"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
         <v>21</v>
@@ -13471,7 +13468,7 @@
       </c>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>21</v>
@@ -13494,7 +13491,7 @@
       </c>
       <c r="I95" s="10"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>21</v>
@@ -13517,7 +13514,7 @@
       </c>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="10" t="b">
         <v>0</v>
       </c>
@@ -13536,7 +13533,7 @@
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>21</v>
@@ -13561,7 +13558,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="10" t="b">
         <v>0</v>
       </c>
@@ -13580,7 +13577,7 @@
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>21</v>
@@ -13601,7 +13598,7 @@
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>21</v>
@@ -13626,7 +13623,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="10" t="b">
         <v>0</v>
       </c>
@@ -13645,7 +13642,7 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>21</v>
@@ -13668,7 +13665,7 @@
       </c>
       <c r="I103" s="10"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>21</v>
@@ -13693,7 +13690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>21</v>
@@ -13716,7 +13713,7 @@
       </c>
       <c r="I105" s="10"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>21</v>
@@ -13737,7 +13734,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="10" t="b">
         <v>0</v>
       </c>
@@ -13756,7 +13753,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>21</v>
@@ -13781,7 +13778,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>21</v>
@@ -13804,7 +13801,7 @@
       </c>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>21</v>
@@ -13827,7 +13824,7 @@
       </c>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>21</v>
@@ -13850,7 +13847,7 @@
       </c>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>21</v>
@@ -13873,7 +13870,7 @@
       </c>
       <c r="I112" s="10"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>21</v>
@@ -13896,7 +13893,7 @@
       </c>
       <c r="I113" s="10"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>21</v>
@@ -13919,7 +13916,7 @@
       </c>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="10" t="b">
         <v>0</v>
       </c>
@@ -13938,7 +13935,7 @@
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>21</v>
@@ -13961,7 +13958,7 @@
       </c>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>21</v>
@@ -13984,7 +13981,7 @@
       </c>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>21</v>
@@ -14007,7 +14004,7 @@
       </c>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="10" t="b">
         <v>0</v>
       </c>
@@ -14026,7 +14023,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>21</v>
@@ -14049,7 +14046,7 @@
       </c>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>21</v>
@@ -14072,7 +14069,7 @@
       </c>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
         <v>21</v>
@@ -14095,7 +14092,7 @@
       </c>
       <c r="I122" s="10"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
         <v>21</v>
@@ -14118,7 +14115,7 @@
       </c>
       <c r="I123" s="10"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>21</v>
@@ -14141,7 +14138,7 @@
       </c>
       <c r="I124" s="10"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>21</v>
@@ -14164,7 +14161,7 @@
       </c>
       <c r="I125" s="10"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="10" t="b">
         <v>0</v>
       </c>
@@ -14183,7 +14180,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>21</v>
@@ -14208,7 +14205,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
         <v>21</v>
@@ -14231,7 +14228,7 @@
       </c>
       <c r="I128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
         <v>21</v>
@@ -14254,7 +14251,7 @@
       </c>
       <c r="I129" s="10"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
         <v>21</v>
@@ -14277,7 +14274,7 @@
       </c>
       <c r="I130" s="10"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="10"/>
       <c r="B131" s="10" t="s">
         <v>21</v>
@@ -14300,7 +14297,7 @@
       </c>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
         <v>21</v>
@@ -14323,7 +14320,7 @@
       </c>
       <c r="I132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
         <v>21</v>
@@ -14346,7 +14343,7 @@
       </c>
       <c r="I133" s="10"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
         <v>21</v>
@@ -14369,7 +14366,7 @@
       </c>
       <c r="I134" s="10"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
         <v>21</v>
@@ -14392,7 +14389,7 @@
       </c>
       <c r="I135" s="10"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="10" t="b">
         <v>0</v>
       </c>
@@ -14411,7 +14408,7 @@
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
         <v>21</v>
@@ -14436,7 +14433,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
         <v>21</v>
@@ -14457,7 +14454,7 @@
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
         <v>21</v>
@@ -14480,7 +14477,7 @@
       </c>
       <c r="I139" s="10"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
         <v>21</v>
@@ -14503,7 +14500,7 @@
       </c>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>21</v>
@@ -14526,7 +14523,7 @@
       </c>
       <c r="I141" s="10"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>21</v>
@@ -14549,7 +14546,7 @@
       </c>
       <c r="I142" s="10"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>21</v>
@@ -14572,7 +14569,7 @@
       </c>
       <c r="I143" s="10"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>21</v>
@@ -14595,7 +14592,7 @@
       </c>
       <c r="I144" s="10"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>21</v>
@@ -14618,7 +14615,7 @@
       </c>
       <c r="I145" s="10"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>21</v>
@@ -14641,7 +14638,7 @@
       </c>
       <c r="I146" s="10"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>21</v>
@@ -14664,7 +14661,7 @@
       </c>
       <c r="I147" s="10"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>21</v>
@@ -14687,7 +14684,7 @@
       </c>
       <c r="I148" s="10"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>21</v>
@@ -14710,7 +14707,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>21</v>
@@ -14733,7 +14730,7 @@
       </c>
       <c r="I150" s="10"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="10" t="b">
         <v>0</v>
       </c>
@@ -14752,7 +14749,7 @@
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>21</v>
@@ -14775,7 +14772,7 @@
       </c>
       <c r="I152" s="10"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="10" t="b">
         <v>0</v>
       </c>
@@ -14794,7 +14791,7 @@
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>21</v>
@@ -14817,7 +14814,7 @@
       </c>
       <c r="I154" s="10"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>21</v>
@@ -14840,7 +14837,7 @@
       </c>
       <c r="I155" s="10"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="10" t="b">
         <v>0</v>
       </c>
@@ -14859,7 +14856,7 @@
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
         <v>21</v>
@@ -14884,7 +14881,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="10"/>
       <c r="B158" s="10" t="s">
         <v>21</v>
@@ -14907,7 +14904,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>21</v>
@@ -14930,7 +14927,7 @@
       </c>
       <c r="I159" s="10"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>21</v>
@@ -14953,7 +14950,7 @@
       </c>
       <c r="I160" s="10"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>21</v>
@@ -14976,7 +14973,7 @@
       </c>
       <c r="I161" s="10"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>21</v>
@@ -14999,7 +14996,7 @@
       </c>
       <c r="I162" s="10"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>21</v>
@@ -15022,7 +15019,7 @@
       </c>
       <c r="I163" s="10"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>21</v>
@@ -15045,7 +15042,7 @@
       </c>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>21</v>
@@ -15068,7 +15065,7 @@
       </c>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>21</v>
@@ -15091,7 +15088,7 @@
       </c>
       <c r="I166" s="10"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="10" t="b">
         <v>0</v>
       </c>
@@ -15110,7 +15107,7 @@
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>21</v>
@@ -15135,7 +15132,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>21</v>
@@ -15158,7 +15155,7 @@
       </c>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>21</v>
@@ -15181,7 +15178,7 @@
       </c>
       <c r="I170" s="10"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>21</v>
@@ -15204,7 +15201,7 @@
       </c>
       <c r="I171" s="10"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>21</v>
@@ -15227,7 +15224,7 @@
       </c>
       <c r="I172" s="10"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>21</v>
@@ -15250,7 +15247,7 @@
       </c>
       <c r="I173" s="10"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>21</v>
@@ -15273,7 +15270,7 @@
       </c>
       <c r="I174" s="10"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>21</v>
@@ -15296,7 +15293,7 @@
       </c>
       <c r="I175" s="10"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>21</v>
@@ -15319,7 +15316,7 @@
       </c>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>21</v>
@@ -15342,7 +15339,7 @@
       </c>
       <c r="I177" s="10"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="10" t="b">
         <v>0</v>
       </c>
@@ -15361,7 +15358,7 @@
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>21</v>
@@ -15384,7 +15381,7 @@
       </c>
       <c r="I179" s="10"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>21</v>
@@ -15407,7 +15404,7 @@
       </c>
       <c r="I180" s="10"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>21</v>
@@ -15430,7 +15427,7 @@
       </c>
       <c r="I181" s="10"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
         <v>21</v>
@@ -15453,7 +15450,7 @@
       </c>
       <c r="I182" s="10"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="10" t="b">
         <v>0</v>
       </c>
@@ -15472,7 +15469,7 @@
       <c r="H183" s="10"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>21</v>
@@ -15495,7 +15492,7 @@
       </c>
       <c r="I184" s="10"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>21</v>
@@ -15518,7 +15515,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>21</v>
@@ -15541,7 +15538,7 @@
       </c>
       <c r="I186" s="10"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>21</v>
@@ -15564,7 +15561,7 @@
       </c>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="10" t="b">
         <v>0</v>
       </c>
@@ -15583,7 +15580,7 @@
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>21</v>
@@ -15604,7 +15601,7 @@
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>21</v>
@@ -15627,7 +15624,7 @@
       </c>
       <c r="I190" s="10"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="10" t="b">
         <v>0</v>
       </c>
@@ -15646,7 +15643,7 @@
       <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>21</v>
@@ -15669,7 +15666,7 @@
       </c>
       <c r="I192" s="10"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>21</v>
@@ -15694,7 +15691,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>21</v>
@@ -15715,7 +15712,7 @@
       <c r="H194" s="10"/>
       <c r="I194" s="10"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>21</v>
@@ -15740,7 +15737,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>21</v>
@@ -15765,7 +15762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="10" t="b">
         <v>0</v>
       </c>
@@ -15784,7 +15781,7 @@
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>21</v>
@@ -15809,7 +15806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="10"/>
       <c r="B199" s="10" t="s">
         <v>21</v>
@@ -15832,7 +15829,7 @@
       </c>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="10"/>
       <c r="B200" s="10" t="s">
         <v>21</v>
@@ -15855,7 +15852,7 @@
       </c>
       <c r="I200" s="10"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="10"/>
       <c r="B201" s="10" t="s">
         <v>21</v>
@@ -15878,7 +15875,7 @@
       </c>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>21</v>
@@ -15901,7 +15898,7 @@
       </c>
       <c r="I202" s="10"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
         <v>21</v>
@@ -15924,7 +15921,7 @@
       </c>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>21</v>
@@ -15947,7 +15944,7 @@
       </c>
       <c r="I204" s="10"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>21</v>
@@ -15970,7 +15967,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>21</v>
@@ -15993,7 +15990,7 @@
       </c>
       <c r="I206" s="10"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="10" t="b">
         <v>0</v>
       </c>
@@ -16012,7 +16009,7 @@
       <c r="H207" s="10"/>
       <c r="I207" s="10"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>21</v>
@@ -16037,7 +16034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>21</v>
@@ -16060,7 +16057,7 @@
       </c>
       <c r="I209" s="10"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>21</v>
@@ -16083,7 +16080,7 @@
       </c>
       <c r="I210" s="10"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>21</v>
@@ -16106,7 +16103,7 @@
       </c>
       <c r="I211" s="10"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>21</v>
@@ -16129,7 +16126,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>21</v>
@@ -16152,7 +16149,7 @@
       </c>
       <c r="I213" s="10"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>21</v>
@@ -16175,7 +16172,7 @@
       </c>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>21</v>
@@ -16198,7 +16195,7 @@
       </c>
       <c r="I215" s="10"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>21</v>
@@ -16221,7 +16218,7 @@
       </c>
       <c r="I216" s="10"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="10" t="b">
         <v>0</v>
       </c>
@@ -16240,7 +16237,7 @@
       <c r="H217" s="10"/>
       <c r="I217" s="10"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>21</v>
@@ -16261,7 +16258,7 @@
       <c r="H218" s="10"/>
       <c r="I218" s="10"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>21</v>
@@ -16284,7 +16281,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>21</v>
@@ -16307,7 +16304,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>21</v>
@@ -16330,7 +16327,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>21</v>
@@ -16353,7 +16350,7 @@
       </c>
       <c r="I222" s="10"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>21</v>
@@ -16376,7 +16373,7 @@
       </c>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>21</v>
@@ -16399,7 +16396,7 @@
       </c>
       <c r="I224" s="10"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>21</v>
@@ -16422,7 +16419,7 @@
       </c>
       <c r="I225" s="10"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>21</v>
@@ -16445,7 +16442,7 @@
       </c>
       <c r="I226" s="10"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>21</v>
@@ -16468,7 +16465,7 @@
       </c>
       <c r="I227" s="10"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>21</v>
@@ -16491,7 +16488,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>21</v>
@@ -16514,7 +16511,7 @@
       </c>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>21</v>
@@ -16537,7 +16534,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>21</v>
@@ -16560,7 +16557,7 @@
       </c>
       <c r="I231" s="10"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>21</v>
@@ -16583,7 +16580,7 @@
       </c>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>21</v>
@@ -16606,7 +16603,7 @@
       </c>
       <c r="I233" s="10"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="10" t="b">
         <v>0</v>
       </c>
@@ -16625,7 +16622,7 @@
       <c r="H234" s="10"/>
       <c r="I234" s="10"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>21</v>
@@ -16646,7 +16643,7 @@
       <c r="H235" s="10"/>
       <c r="I235" s="10"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="10"/>
       <c r="B236" s="10" t="s">
         <v>21</v>
@@ -16669,7 +16666,7 @@
       </c>
       <c r="I236" s="10"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>21</v>
@@ -16692,7 +16689,7 @@
       </c>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>21</v>
@@ -16715,7 +16712,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>21</v>
@@ -16738,7 +16735,7 @@
       </c>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>21</v>
@@ -16761,7 +16758,7 @@
       </c>
       <c r="I240" s="10"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>21</v>
@@ -16784,7 +16781,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>21</v>
@@ -16807,7 +16804,7 @@
       </c>
       <c r="I242" s="10"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>21</v>
@@ -16830,7 +16827,7 @@
       </c>
       <c r="I243" s="10"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>21</v>
@@ -16853,7 +16850,7 @@
       </c>
       <c r="I244" s="10"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>21</v>
@@ -16876,7 +16873,7 @@
       </c>
       <c r="I245" s="10"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>21</v>
@@ -16899,7 +16896,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>21</v>
@@ -16922,7 +16919,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>21</v>
@@ -16945,7 +16942,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>21</v>
@@ -16968,7 +16965,7 @@
       </c>
       <c r="I249" s="10"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>21</v>
@@ -16991,7 +16988,7 @@
       </c>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="10" t="b">
         <v>0</v>
       </c>
@@ -17010,7 +17007,7 @@
       <c r="H251" s="10"/>
       <c r="I251" s="10"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>21</v>
@@ -17035,7 +17032,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>21</v>
@@ -17058,7 +17055,7 @@
       </c>
       <c r="I253" s="10"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>21</v>
@@ -17081,7 +17078,7 @@
       </c>
       <c r="I254" s="10"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>21</v>
@@ -17104,7 +17101,7 @@
       </c>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>21</v>
@@ -17127,7 +17124,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="10" t="b">
         <v>0</v>
       </c>
@@ -17146,7 +17143,7 @@
       <c r="H257" s="10"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>21</v>
@@ -17171,7 +17168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>21</v>
@@ -17194,7 +17191,7 @@
       </c>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="10" t="b">
         <v>0</v>
       </c>
@@ -17213,7 +17210,7 @@
       <c r="H260" s="10"/>
       <c r="I260" s="10"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="10" t="b">
         <v>0</v>
       </c>
@@ -17232,7 +17229,7 @@
       <c r="H261" s="10"/>
       <c r="I261" s="10"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="10" t="b">
         <v>0</v>
       </c>
@@ -17251,7 +17248,7 @@
       <c r="H262" s="10"/>
       <c r="I262" s="10"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>21</v>
@@ -17272,7 +17269,7 @@
       <c r="H263" s="10"/>
       <c r="I263" s="10"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>21</v>
@@ -17295,7 +17292,7 @@
       </c>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>21</v>
@@ -17318,7 +17315,7 @@
       </c>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>21</v>
@@ -17341,7 +17338,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>21</v>
@@ -17364,7 +17361,7 @@
       </c>
       <c r="I267" s="10"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>21</v>
@@ -17387,7 +17384,7 @@
       </c>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>21</v>
@@ -17410,7 +17407,7 @@
       </c>
       <c r="I269" s="10"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>21</v>
@@ -17433,7 +17430,7 @@
       </c>
       <c r="I270" s="10"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>21</v>
@@ -17456,7 +17453,7 @@
       </c>
       <c r="I271" s="10"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>21</v>
@@ -17479,7 +17476,7 @@
       </c>
       <c r="I272" s="10"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>21</v>
@@ -17502,7 +17499,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="10" t="b">
         <v>0</v>
       </c>
@@ -17521,7 +17518,7 @@
       <c r="H274" s="10"/>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="10"/>
       <c r="B275" s="10" t="s">
         <v>21</v>
@@ -17544,7 +17541,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="10" t="b">
         <v>0</v>
       </c>
@@ -17563,7 +17560,7 @@
       <c r="H276" s="10"/>
       <c r="I276" s="10"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>21</v>
@@ -17588,7 +17585,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="10"/>
       <c r="B278" s="10" t="s">
         <v>21</v>
@@ -17611,7 +17608,7 @@
       </c>
       <c r="I278" s="10"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="10"/>
       <c r="B279" s="10" t="s">
         <v>21</v>
@@ -17634,7 +17631,7 @@
       </c>
       <c r="I279" s="10"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="10"/>
       <c r="B280" s="10" t="s">
         <v>21</v>
@@ -17657,7 +17654,7 @@
       </c>
       <c r="I280" s="10"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="10"/>
       <c r="B281" s="10" t="s">
         <v>21</v>
@@ -17680,7 +17677,7 @@
       </c>
       <c r="I281" s="10"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="10"/>
       <c r="B282" s="10" t="s">
         <v>21</v>
@@ -17703,7 +17700,7 @@
       </c>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="10"/>
       <c r="B283" s="10" t="s">
         <v>21</v>
@@ -17726,7 +17723,7 @@
       </c>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="10"/>
       <c r="B284" s="10" t="s">
         <v>21</v>
@@ -17749,7 +17746,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
         <v>21</v>
@@ -17772,7 +17769,7 @@
       </c>
       <c r="I285" s="10"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="10"/>
       <c r="B286" s="10" t="s">
         <v>21</v>
@@ -17795,7 +17792,7 @@
       </c>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="10"/>
       <c r="B287" s="10" t="s">
         <v>21</v>
@@ -17818,7 +17815,7 @@
       </c>
       <c r="I287" s="10"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="10" t="b">
         <v>0</v>
       </c>
@@ -17837,7 +17834,7 @@
       <c r="H288" s="10"/>
       <c r="I288" s="10"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="10"/>
       <c r="B289" s="10" t="s">
         <v>21</v>
@@ -17860,7 +17857,7 @@
       </c>
       <c r="I289" s="10"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="10" t="b">
         <v>0</v>
       </c>
@@ -17879,7 +17876,7 @@
       <c r="H290" s="10"/>
       <c r="I290" s="10"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>21</v>
@@ -17900,7 +17897,7 @@
       <c r="H291" s="10"/>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="10" t="b">
         <v>0</v>
       </c>
@@ -17919,7 +17916,7 @@
       <c r="H292" s="10"/>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>21</v>
@@ -17940,7 +17937,7 @@
       <c r="H293" s="10"/>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="10" t="b">
         <v>0</v>
       </c>
@@ -17959,7 +17956,7 @@
       <c r="H294" s="10"/>
       <c r="I294" s="10"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>21</v>
@@ -17980,7 +17977,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="10" t="b">
         <v>0</v>
       </c>
@@ -17999,7 +17996,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>21</v>
@@ -18022,7 +18019,7 @@
       </c>
       <c r="I297" s="10"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="10" t="b">
         <v>0</v>
       </c>
@@ -18041,7 +18038,7 @@
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>21</v>
@@ -18066,7 +18063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>21</v>
@@ -18089,7 +18086,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>21</v>
@@ -18112,7 +18109,7 @@
       </c>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>21</v>
@@ -18135,7 +18132,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>21</v>
@@ -18158,7 +18155,7 @@
       </c>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>21</v>
@@ -18181,7 +18178,7 @@
       </c>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>21</v>
@@ -18204,7 +18201,7 @@
       </c>
       <c r="I305" s="10"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>21</v>
@@ -18227,7 +18224,7 @@
       </c>
       <c r="I306" s="10"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>21</v>
@@ -18250,7 +18247,7 @@
       </c>
       <c r="I307" s="10"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="10" t="b">
         <v>0</v>
       </c>
@@ -18269,7 +18266,7 @@
       <c r="H308" s="10"/>
       <c r="I308" s="10"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>21</v>
@@ -18292,7 +18289,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>21</v>
@@ -18315,7 +18312,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>21</v>
@@ -18338,7 +18335,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>21</v>
@@ -18361,7 +18358,7 @@
       </c>
       <c r="I312" s="10"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="10" t="b">
         <v>0</v>
       </c>
@@ -18380,7 +18377,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>21</v>
@@ -18403,7 +18400,7 @@
       </c>
       <c r="I314" s="10"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>21</v>
@@ -18426,7 +18423,7 @@
       </c>
       <c r="I315" s="10"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>21</v>
@@ -18451,7 +18448,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="10" t="b">
         <v>0</v>
       </c>
@@ -18470,7 +18467,7 @@
       <c r="H317" s="10"/>
       <c r="I317" s="10"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>21</v>
@@ -18495,7 +18492,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>21</v>
@@ -18518,7 +18515,7 @@
       </c>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="10" t="b">
         <v>0</v>
       </c>
@@ -18537,7 +18534,7 @@
       <c r="H320" s="10"/>
       <c r="I320" s="10"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>21</v>
@@ -18558,7 +18555,7 @@
       <c r="H321" s="10"/>
       <c r="I321" s="10"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>21</v>
@@ -18579,7 +18576,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>21</v>
@@ -18602,7 +18599,7 @@
       </c>
       <c r="I323" s="10"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="10" t="b">
         <v>0</v>
       </c>
@@ -18621,7 +18618,7 @@
       <c r="H324" s="10"/>
       <c r="I324" s="10"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="10" t="b">
         <v>0</v>
       </c>
@@ -18640,7 +18637,7 @@
       <c r="H325" s="10"/>
       <c r="I325" s="10"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>21</v>
@@ -18665,7 +18662,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>21</v>
@@ -18690,7 +18687,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18704,7 +18701,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18727,7 +18724,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18747,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18767,7 +18764,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18787,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18804,7 +18801,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18827,7 +18824,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18850,7 +18847,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18864,7 +18861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18887,7 +18884,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18910,7 +18907,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18930,7 +18927,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18950,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18967,7 +18964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18993,7 +18990,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -19022,7 +19019,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="10"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19061,7 +19058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -19075,7 +19072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -19095,7 +19092,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -19109,7 +19106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -19129,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -19149,7 +19146,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19169,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19189,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19209,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19229,7 +19226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19249,7 +19246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19269,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19289,7 +19286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19303,7 +19300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19323,7 +19320,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19343,7 +19340,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19359,7 +19356,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19385,7 +19382,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="10"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19426,7 +19423,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19440,7 +19437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19460,7 +19457,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19474,7 +19471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19496,7 +19493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19513,17 +19509,17 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -19540,7 +19536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="21" customFormat="1">
       <c r="A2" s="21" t="s">
         <v>635</v>
       </c>
@@ -19557,7 +19553,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="21" customFormat="1">
       <c r="A3" s="21" t="s">
         <v>588</v>
       </c>
@@ -19574,7 +19570,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="21" customFormat="1">
       <c r="A4" s="21" t="s">
         <v>590</v>
       </c>
@@ -19591,7 +19587,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="21" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>592</v>
       </c>
@@ -19608,7 +19604,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="21" customFormat="1">
       <c r="A6" s="21" t="s">
         <v>594</v>
       </c>
@@ -19625,7 +19621,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="21" customFormat="1">
       <c r="A7" s="21" t="s">
         <v>596</v>
       </c>
@@ -19642,7 +19638,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="21" customFormat="1">
       <c r="A8" s="21" t="s">
         <v>439</v>
       </c>
@@ -19659,7 +19655,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1">
       <c r="A9" s="21" t="s">
         <v>599</v>
       </c>
@@ -19676,7 +19672,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="21" t="s">
         <v>601</v>
       </c>
@@ -19693,9 +19689,9 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="21" customFormat="1"/>
+    <row r="12" spans="1:7" s="21" customFormat="1"/>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -19709,7 +19705,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>455</v>
       </c>
@@ -19723,7 +19719,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -19734,8 +19730,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="21" customFormat="1"/>
+    <row r="18" spans="1:35">
       <c r="A18" t="s">
         <v>547</v>
       </c>
@@ -19779,7 +19775,7 @@
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
         <v>548</v>
       </c>
@@ -19856,7 +19852,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35">
       <c r="A20" s="21" t="s">
         <v>721</v>
       </c>
@@ -19924,7 +19920,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -19963,7 +19959,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35">
       <c r="A22" t="s">
         <v>541</v>
       </c>
@@ -20004,7 +20000,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35">
       <c r="A23" t="s">
         <v>550</v>
       </c>
@@ -20036,7 +20032,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35">
       <c r="A24" t="s">
         <v>549</v>
       </c>
@@ -20071,7 +20067,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
         <v>551</v>
       </c>
@@ -20106,7 +20102,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35">
       <c r="A26" t="s">
         <v>703</v>
       </c>
@@ -20129,7 +20125,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
         <v>698</v>
       </c>
@@ -20155,7 +20151,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35">
       <c r="A28" t="s">
         <v>699</v>
       </c>
@@ -20181,7 +20177,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35">
       <c r="A29" s="21" t="s">
         <v>715</v>
       </c>
@@ -20195,7 +20191,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35">
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -20209,7 +20205,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35">
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
@@ -20223,7 +20219,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35">
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -20239,7 +20235,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
